--- a/data/ece-catalog.xlsx
+++ b/data/ece-catalog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elisa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elisa/Documents/uwece-catalog/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615A412F-41E8-3B49-968D-4F76A08E6B6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CFDD33-C025-0E4B-9B3A-25356AEF5615}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="460" windowWidth="14780" windowHeight="14180" xr2:uid="{0B1F95D0-FD8F-8249-8FAE-3C2EA3F05EE2}"/>
+    <workbookView xWindow="10820" yWindow="460" windowWidth="14780" windowHeight="14180" xr2:uid="{0B1F95D0-FD8F-8249-8FAE-3C2EA3F05EE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="432">
   <si>
     <t>Part #</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Trimmer</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -1318,6 +1315,12 @@
   </si>
   <si>
     <t>4.7u 100V</t>
+  </si>
+  <si>
+    <t>Capacito+B115r</t>
+  </si>
+  <si>
+    <t>Resistors, Trim Potentiometers</t>
   </si>
 </sst>
 </file>
@@ -1716,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B127431A-815B-8C47-B798-29A98F3159CA}">
   <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C190" workbookViewId="0">
-      <selection activeCell="D207" sqref="D207"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1730,38 +1733,38 @@
   <sheetData>
     <row r="1" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -1769,16 +1772,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -1786,16 +1789,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -1803,16 +1806,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -1820,16 +1823,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -1837,16 +1840,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1854,16 +1857,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1871,16 +1874,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1888,16 +1891,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -1905,16 +1908,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1922,16 +1925,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1939,16 +1942,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1956,16 +1959,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -1973,16 +1976,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1990,16 +1993,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -2007,16 +2010,16 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -2024,16 +2027,16 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -2041,16 +2044,16 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -2058,16 +2061,16 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -2075,16 +2078,16 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -2092,16 +2095,16 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -2109,16 +2112,16 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -2126,16 +2129,16 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -2143,16 +2146,16 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -2160,16 +2163,16 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -2177,16 +2180,16 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -2194,16 +2197,16 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -2211,16 +2214,16 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -2228,16 +2231,16 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -2245,16 +2248,16 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
@@ -2262,16 +2265,16 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -2279,16 +2282,16 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>19</v>
+        <v>431</v>
       </c>
       <c r="C33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -2296,16 +2299,16 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>298</v>
+      </c>
+      <c r="C34" t="s">
+        <v>357</v>
+      </c>
+      <c r="D34" t="s">
+        <v>320</v>
+      </c>
+      <c r="E34" t="s">
         <v>299</v>
-      </c>
-      <c r="C34" t="s">
-        <v>358</v>
-      </c>
-      <c r="D34" t="s">
-        <v>321</v>
-      </c>
-      <c r="E34" t="s">
-        <v>300</v>
       </c>
       <c r="F34" s="4">
         <v>0.7</v>
@@ -2313,16 +2316,16 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F35" s="4">
         <v>0.7</v>
@@ -2330,16 +2333,16 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F36" s="4">
         <v>0.7</v>
@@ -2347,16 +2350,16 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F37" s="4">
         <v>0.7</v>
@@ -2364,16 +2367,16 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F38" s="4">
         <v>0.7</v>
@@ -2381,16 +2384,16 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F39" s="4">
         <v>0.7</v>
@@ -2398,16 +2401,16 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F40" s="4">
         <v>0.7</v>
@@ -2415,16 +2418,16 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F41" s="4">
         <v>0.7</v>
@@ -2432,16 +2435,16 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F42" s="4">
         <v>0.7</v>
@@ -2449,16 +2452,16 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F43" s="4">
         <v>0.7</v>
@@ -2466,16 +2469,16 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F44" s="4">
         <v>0.7</v>
@@ -2483,16 +2486,16 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F45" s="4">
         <v>0.7</v>
@@ -2500,16 +2503,16 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F46" s="4">
         <v>0.7</v>
@@ -2517,16 +2520,16 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F47" s="4">
         <v>0.7</v>
@@ -2534,16 +2537,16 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F48" s="4">
         <v>0.7</v>
@@ -2551,16 +2554,16 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C49" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F49" s="4">
         <v>0.7</v>
@@ -2568,16 +2571,16 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D50" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F50" s="4">
         <v>0.7</v>
@@ -2585,16 +2588,16 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F51" s="4">
         <v>0.7</v>
@@ -2602,16 +2605,16 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F52" s="4">
         <v>0.7</v>
@@ -2619,16 +2622,16 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C53" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F53" s="4">
         <v>0.7</v>
@@ -2636,16 +2639,16 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C54" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F54" s="4">
         <v>0.7</v>
@@ -2653,16 +2656,16 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F55" s="4">
         <v>0.4</v>
@@ -2670,16 +2673,16 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C56" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D56" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F56" s="4">
         <v>0.4</v>
@@ -2687,16 +2690,16 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C57" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F57" s="4">
         <v>0.4</v>
@@ -2704,16 +2707,16 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C58" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D58" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F58" s="4">
         <v>0.4</v>
@@ -2721,16 +2724,16 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E59" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F59" s="4">
         <v>0.4</v>
@@ -2738,16 +2741,16 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C60" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F60" s="4">
         <v>0.4</v>
@@ -2755,16 +2758,16 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C61" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E61" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F61" s="4">
         <v>0.4</v>
@@ -2772,16 +2775,16 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F62" s="5">
         <v>0.2</v>
@@ -2789,16 +2792,16 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F63" s="5">
         <v>0.2</v>
@@ -2806,16 +2809,16 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F64" s="5">
         <v>0.2</v>
@@ -2823,16 +2826,16 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F65" s="5">
         <v>0.2</v>
@@ -2840,16 +2843,16 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F66" s="5">
         <v>0.2</v>
@@ -2857,16 +2860,16 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F67" s="5">
         <v>0.2</v>
@@ -2874,16 +2877,16 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F68" s="5">
         <v>0.2</v>
@@ -2891,16 +2894,16 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F69" s="5">
         <v>0.2</v>
@@ -2908,16 +2911,16 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F70" s="5">
         <v>0.2</v>
@@ -2925,16 +2928,16 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F71" s="5">
         <v>0.2</v>
@@ -2942,16 +2945,16 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F72" s="5">
         <v>0.2</v>
@@ -2959,16 +2962,16 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F73" s="5">
         <v>0.2</v>
@@ -2976,16 +2979,16 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F74" s="5">
         <v>0.2</v>
@@ -2993,16 +2996,16 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F75" s="5">
         <v>0.2</v>
@@ -3010,16 +3013,16 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F76" s="5">
         <v>0.2</v>
@@ -3027,16 +3030,16 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F77" s="5">
         <v>0.2</v>
@@ -3044,16 +3047,16 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F78" s="5">
         <v>0.2</v>
@@ -3061,16 +3064,16 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F79" s="4">
         <v>0.2</v>
@@ -3078,16 +3081,16 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F80" s="4">
         <v>0.2</v>
@@ -3095,16 +3098,16 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F81" s="4">
         <v>0.2</v>
@@ -3112,16 +3115,16 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F82" s="4">
         <v>0.2</v>
@@ -3129,16 +3132,16 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F83" s="4">
         <v>0.2</v>
@@ -3146,16 +3149,16 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F84" s="4">
         <v>0.2</v>
@@ -3163,16 +3166,16 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F85" s="4">
         <v>0.2</v>
@@ -3180,16 +3183,16 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F86" s="4">
         <v>0.2</v>
@@ -3197,16 +3200,16 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F87" s="4">
         <v>0.2</v>
@@ -3214,16 +3217,16 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E88" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F88" s="4">
         <v>0.2</v>
@@ -3231,16 +3234,16 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F89" s="4">
         <v>0.2</v>
@@ -3248,16 +3251,16 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F90" s="4">
         <v>0.2</v>
@@ -3265,16 +3268,16 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F91" s="4">
         <v>0.2</v>
@@ -3282,16 +3285,16 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E92" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F92" s="4">
         <v>0.2</v>
@@ -3299,16 +3302,16 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F93" s="4">
         <v>0.2</v>
@@ -3316,16 +3319,16 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F94" s="4">
         <v>0.2</v>
@@ -3333,16 +3336,16 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E95" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F95" s="4">
         <v>0.2</v>
@@ -3350,16 +3353,16 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F96" s="4">
         <v>0.2</v>
@@ -3367,16 +3370,16 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F97" s="4">
         <v>0.2</v>
@@ -3384,16 +3387,16 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F98" s="4">
         <v>0.2</v>
@@ -3401,16 +3404,16 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F99" s="4">
         <v>0.2</v>
@@ -3418,16 +3421,16 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F100" s="4">
         <v>0.2</v>
@@ -3435,16 +3438,16 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F101" s="4">
         <v>0.2</v>
@@ -3452,16 +3455,16 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F102" s="4">
         <v>0.2</v>
@@ -3469,16 +3472,16 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F103" s="4">
         <v>0.2</v>
@@ -3486,16 +3489,16 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F104" s="4">
         <v>0.2</v>
@@ -3503,16 +3506,16 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F105" s="4">
         <v>0.2</v>
@@ -3520,16 +3523,16 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F106" s="4">
         <v>0.2</v>
@@ -3537,16 +3540,16 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F107" s="4">
         <v>0.2</v>
@@ -3554,16 +3557,16 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F108" s="4">
         <v>0.2</v>
@@ -3571,16 +3574,16 @@
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F109" s="4">
         <v>0.2</v>
@@ -3588,16 +3591,16 @@
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F110" s="4">
         <v>0.2</v>
@@ -3605,16 +3608,16 @@
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F111" s="4">
         <v>0.2</v>
@@ -3622,16 +3625,16 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F112" s="4">
         <v>0.2</v>
@@ -3639,16 +3642,16 @@
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F113" s="4">
         <v>0.2</v>
@@ -3656,16 +3659,16 @@
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F114" s="4">
         <v>0.2</v>
@@ -3673,16 +3676,16 @@
     </row>
     <row r="115" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E115" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F115" s="7">
         <v>0.2</v>
@@ -3690,16 +3693,16 @@
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C116" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D116" t="s">
+        <v>178</v>
+      </c>
+      <c r="E116" t="s">
         <v>237</v>
-      </c>
-      <c r="D116" t="s">
-        <v>179</v>
-      </c>
-      <c r="E116" t="s">
-        <v>238</v>
       </c>
       <c r="F116" s="4">
         <v>0.3</v>
@@ -3707,16 +3710,16 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D117" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E117" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F117" s="4">
         <v>0.3</v>
@@ -3724,16 +3727,16 @@
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D118" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F118" s="4">
         <v>0.3</v>
@@ -3741,16 +3744,16 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D119" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E119" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F119" s="4">
         <v>0.3</v>
@@ -3758,16 +3761,16 @@
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D120" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E120" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F120" s="4">
         <v>0.3</v>
@@ -3775,16 +3778,16 @@
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D121" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E121" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F121" s="4">
         <v>0.3</v>
@@ -3792,16 +3795,16 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D122" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E122" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F122" s="4">
         <v>0.3</v>
@@ -3809,16 +3812,16 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D123" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F123" s="4">
         <v>0.3</v>
@@ -3826,16 +3829,16 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E124" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F124" s="4">
         <v>0.3</v>
@@ -3843,16 +3846,16 @@
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F125" s="4">
         <v>0.3</v>
@@ -3860,16 +3863,16 @@
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E126" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F126" s="4">
         <v>0.3</v>
@@ -3877,16 +3880,16 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F127" s="4">
         <v>0.3</v>
@@ -3894,16 +3897,16 @@
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D128" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E128" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F128" s="4">
         <v>0.3</v>
@@ -3911,16 +3914,16 @@
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D129" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F129" s="4">
         <v>0.3</v>
@@ -3928,16 +3931,16 @@
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D130" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E130" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F130" s="4">
         <v>0.3</v>
@@ -3945,16 +3948,16 @@
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D131" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F131" s="4">
         <v>0.3</v>
@@ -3962,16 +3965,16 @@
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D132" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E132" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F132" s="4">
         <v>0.3</v>
@@ -3979,16 +3982,16 @@
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D133" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F133" s="4">
         <v>0.3</v>
@@ -3996,16 +3999,16 @@
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B134" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D134" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E134" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F134" s="4">
         <v>0.3</v>
@@ -4013,16 +4016,16 @@
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D135" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F135" s="4">
         <v>0.3</v>
@@ -4030,16 +4033,16 @@
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D136" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F136" s="4">
         <v>0.3</v>
@@ -4047,16 +4050,16 @@
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D137" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F137" s="4">
         <v>0.3</v>
@@ -4064,16 +4067,16 @@
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B138" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D138" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F138" s="4">
         <v>0.3</v>
@@ -4081,16 +4084,16 @@
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D139" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F139" s="4">
         <v>0.3</v>
@@ -4098,16 +4101,16 @@
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B140" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E140" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F140" s="4">
         <v>0.3</v>
@@ -4115,16 +4118,16 @@
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E141" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F141" s="4">
         <v>0.3</v>
@@ -4132,16 +4135,16 @@
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D142" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E142" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F142" s="4">
         <v>0.3</v>
@@ -4149,16 +4152,16 @@
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" s="3" t="s">
-        <v>177</v>
+        <v>430</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D143" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E143" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F143" s="4">
         <v>0.3</v>
@@ -4166,16 +4169,16 @@
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B144" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D144" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E144" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F144" s="4">
         <v>0.3</v>
@@ -4183,16 +4186,16 @@
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B145" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D145" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E145" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F145" s="4">
         <v>0.3</v>
@@ -4200,16 +4203,16 @@
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D146" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E146" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F146" s="4">
         <v>0.3</v>
@@ -4217,16 +4220,16 @@
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D147" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E147" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F147" s="4">
         <v>0.3</v>
@@ -4234,16 +4237,16 @@
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D148" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E148" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F148" s="4">
         <v>0.3</v>
@@ -4251,16 +4254,16 @@
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B149" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D149" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E149" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F149" s="4">
         <v>0.3</v>
@@ -4268,16 +4271,16 @@
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B150" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D150" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E150" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F150" s="4">
         <v>0.3</v>
@@ -4285,16 +4288,16 @@
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D151" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E151" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F151" s="4">
         <v>0.3</v>
@@ -4302,16 +4305,16 @@
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B152" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D152" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E152" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F152" s="4">
         <v>0.3</v>
@@ -4319,16 +4322,16 @@
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B153" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D153" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E153" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F153" s="4">
         <v>0.3</v>
@@ -4336,16 +4339,16 @@
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D154" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E154" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F154" s="4">
         <v>0.3</v>
@@ -4353,16 +4356,16 @@
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E155" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F155" s="4">
         <v>0.3</v>
@@ -4370,16 +4373,16 @@
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D156" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E156" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F156" s="4">
         <v>0.3</v>
@@ -4387,16 +4390,16 @@
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D157" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E157" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F157" s="4">
         <v>0.3</v>
@@ -4404,16 +4407,16 @@
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B158" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D158" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E158" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F158" s="4">
         <v>0.3</v>
@@ -4421,16 +4424,16 @@
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D159" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E159" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F159" s="4">
         <v>0.3</v>
@@ -4438,16 +4441,16 @@
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D160" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E160" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F160" s="4">
         <v>0.3</v>
@@ -4455,16 +4458,16 @@
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D161" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E161" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F161" s="4">
         <v>0.3</v>
@@ -4472,16 +4475,16 @@
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D162" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E162" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F162" s="4">
         <v>0.3</v>
@@ -4489,16 +4492,16 @@
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D163" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E163" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F163" s="4">
         <v>0.3</v>
@@ -4506,16 +4509,16 @@
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D164" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E164" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F164" s="4">
         <v>0.3</v>
@@ -4523,16 +4526,16 @@
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D165" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E165" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F165" s="4">
         <v>0.3</v>
@@ -4540,16 +4543,16 @@
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D166" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E166" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F166" s="4">
         <v>0.7</v>
@@ -4557,16 +4560,16 @@
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D167" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E167" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F167" s="4">
         <v>0.7</v>
@@ -4574,16 +4577,16 @@
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D168" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E168" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F168" s="4">
         <v>0.7</v>
@@ -4591,16 +4594,16 @@
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D169" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E169" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F169" s="4">
         <v>0.7</v>
@@ -4608,16 +4611,16 @@
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D170" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E170" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F170" s="4">
         <v>0.7</v>
@@ -4625,16 +4628,16 @@
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D171" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E171" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
@@ -4642,16 +4645,16 @@
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D172" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E172" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F172" s="4">
         <v>1.25</v>
@@ -4659,16 +4662,16 @@
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D173" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E173" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F173" s="4">
         <v>2.8</v>
@@ -4676,16 +4679,16 @@
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C174" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D174" t="s">
         <v>361</v>
       </c>
-      <c r="D174" t="s">
-        <v>362</v>
-      </c>
       <c r="E174" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F174" s="4">
         <v>0.4</v>
@@ -4693,16 +4696,16 @@
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B175" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D175" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E175" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F175" s="4">
         <v>0.4</v>
@@ -4710,16 +4713,16 @@
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B176" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D176" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E176" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F176" s="4">
         <v>0.4</v>
@@ -4727,16 +4730,16 @@
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D177" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E177" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F177" s="4">
         <v>0.4</v>
@@ -4744,16 +4747,16 @@
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B178" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D178" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E178" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F178" s="4">
         <v>0.4</v>
@@ -4761,16 +4764,16 @@
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D179" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E179" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F179" s="4">
         <v>0.4</v>
@@ -4778,16 +4781,16 @@
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D180" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E180" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F180" s="4">
         <v>0.4</v>
@@ -4795,16 +4798,16 @@
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B181" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D181" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E181" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F181" s="4">
         <v>0.4</v>
@@ -4812,16 +4815,16 @@
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B182" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D182" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E182" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F182" s="4">
         <v>0.4</v>
@@ -4829,16 +4832,16 @@
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B183" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D183" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E183" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F183" s="4">
         <v>0.4</v>
@@ -4846,16 +4849,16 @@
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B184" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D184" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E184" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F184" s="4">
         <v>0.4</v>
@@ -4863,16 +4866,16 @@
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B185" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D185" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E185" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F185" s="4">
         <v>0.4</v>
@@ -4880,16 +4883,16 @@
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B186" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D186" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E186" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F186" s="4">
         <v>0.4</v>
@@ -4897,16 +4900,16 @@
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B187" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D187" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E187" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F187" s="4">
         <v>0.4</v>
@@ -4914,16 +4917,16 @@
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B188" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D188" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E188" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F188" s="4">
         <v>0.4</v>
@@ -4931,16 +4934,16 @@
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D189" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E189" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F189" s="4">
         <v>0.4</v>
@@ -4948,16 +4951,16 @@
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B190" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D190" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E190" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F190" s="4">
         <v>0.4</v>
@@ -4965,16 +4968,16 @@
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B191" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D191" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E191" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F191" s="4">
         <v>0.8</v>
@@ -4982,16 +4985,16 @@
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B192" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D192" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E192" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F192" s="4">
         <v>0.5</v>
@@ -4999,16 +5002,16 @@
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B193" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D193" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E193" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F193" s="4">
         <v>0.6</v>
@@ -5016,16 +5019,16 @@
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B194" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C194" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D194" t="s">
         <v>402</v>
       </c>
-      <c r="D194" t="s">
-        <v>403</v>
-      </c>
       <c r="E194" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F194" s="4">
         <v>0.3</v>
@@ -5033,16 +5036,16 @@
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B195" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D195" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E195" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F195" s="4">
         <v>0.3</v>
@@ -5050,16 +5053,16 @@
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B196" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D196" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E196" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F196" s="4">
         <v>0.3</v>
@@ -5067,16 +5070,16 @@
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B197" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D197" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E197" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F197" s="4">
         <v>0.3</v>
@@ -5084,16 +5087,16 @@
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B198" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D198" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E198" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F198" s="4">
         <v>0.3</v>
@@ -5101,16 +5104,16 @@
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B199" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D199" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E199" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F199" s="4">
         <v>0.3</v>
@@ -5118,16 +5121,16 @@
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B200" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D200" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E200" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F200" s="4">
         <v>0.4</v>
@@ -5135,16 +5138,16 @@
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B201" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D201" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E201" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F201" s="4">
         <v>0.3</v>
@@ -5152,16 +5155,16 @@
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B202" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D202" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E202" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F202" s="4">
         <v>0.4</v>
@@ -5169,16 +5172,16 @@
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B203" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D203" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E203" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F203" s="4">
         <v>0.5</v>
@@ -5186,16 +5189,16 @@
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B204" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D204" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E204" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F204" s="4">
         <v>0.5</v>
@@ -5203,16 +5206,16 @@
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B205" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D205" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E205" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F205" s="4">
         <v>0.6</v>
@@ -5220,16 +5223,16 @@
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B206" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D206" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E206" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F206" s="4">
         <v>0.7</v>
@@ -5237,16 +5240,16 @@
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B207" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D207" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E207" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F207" s="4">
         <v>2.5</v>

--- a/data/ece-catalog.xlsx
+++ b/data/ece-catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elisa/Documents/uwece-catalog/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CFDD33-C025-0E4B-9B3A-25356AEF5615}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E545382F-19FF-2647-BAA9-82AD1588B432}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10820" yWindow="460" windowWidth="14780" windowHeight="14180" xr2:uid="{0B1F95D0-FD8F-8249-8FAE-3C2EA3F05EE2}"/>
   </bookViews>
@@ -1719,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B127431A-815B-8C47-B798-29A98F3159CA}">
   <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/ece-catalog.xlsx
+++ b/data/ece-catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elisa/Documents/uwece-catalog/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D5D4F7-252B-1843-AF71-030D40D4C94B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390B90D2-31A0-2C44-9FFB-0DD992C2E261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10820" yWindow="460" windowWidth="14780" windowHeight="14180" xr2:uid="{0B1F95D0-FD8F-8249-8FAE-3C2EA3F05EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="1545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="1546">
   <si>
     <t>Part #</t>
   </si>
@@ -4660,6 +4660,9 @@
   </si>
   <si>
     <t>Blank CDR</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -5077,8 +5080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B127431A-815B-8C47-B798-29A98F3159CA}">
   <dimension ref="A1:H797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A769" workbookViewId="0">
+      <selection activeCell="D788" sqref="D788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13763,6 +13766,9 @@
       <c r="B492" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C492" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D492" t="s">
         <v>944</v>
       </c>
@@ -13777,6 +13783,9 @@
       <c r="B493" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C493" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D493" t="s">
         <v>945</v>
       </c>
@@ -13791,6 +13800,9 @@
       <c r="B494" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C494" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D494" t="s">
         <v>946</v>
       </c>
@@ -13805,6 +13817,9 @@
       <c r="B495" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C495" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D495" t="s">
         <v>947</v>
       </c>
@@ -13819,6 +13834,9 @@
       <c r="B496" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C496" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D496" t="s">
         <v>948</v>
       </c>
@@ -13833,6 +13851,9 @@
       <c r="B497" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C497" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D497" t="s">
         <v>949</v>
       </c>
@@ -13847,6 +13868,9 @@
       <c r="B498" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C498" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D498" t="s">
         <v>950</v>
       </c>
@@ -13861,6 +13885,9 @@
       <c r="B499" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C499" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D499" t="s">
         <v>951</v>
       </c>
@@ -13875,6 +13902,9 @@
       <c r="B500" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C500" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D500" t="s">
         <v>952</v>
       </c>
@@ -13889,6 +13919,9 @@
       <c r="B501" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C501" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D501" t="s">
         <v>953</v>
       </c>
@@ -13903,6 +13936,9 @@
       <c r="B502" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C502" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D502" t="s">
         <v>954</v>
       </c>
@@ -13917,6 +13953,9 @@
       <c r="B503" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C503" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D503" t="s">
         <v>955</v>
       </c>
@@ -13931,6 +13970,9 @@
       <c r="B504" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C504" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D504" t="s">
         <v>956</v>
       </c>
@@ -13945,6 +13987,9 @@
       <c r="B505" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C505" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D505" t="s">
         <v>957</v>
       </c>
@@ -13959,6 +14004,9 @@
       <c r="B506" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C506" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D506" t="s">
         <v>958</v>
       </c>
@@ -13973,6 +14021,9 @@
       <c r="B507" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C507" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D507" t="s">
         <v>959</v>
       </c>
@@ -13987,6 +14038,9 @@
       <c r="B508" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C508" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D508" t="s">
         <v>960</v>
       </c>
@@ -14001,6 +14055,9 @@
       <c r="B509" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C509" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D509" t="s">
         <v>961</v>
       </c>
@@ -14015,6 +14072,9 @@
       <c r="B510" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C510" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D510" t="s">
         <v>962</v>
       </c>
@@ -14029,6 +14089,9 @@
       <c r="B511" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C511" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D511" t="s">
         <v>963</v>
       </c>
@@ -14043,6 +14106,9 @@
       <c r="B512" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C512" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D512" t="s">
         <v>964</v>
       </c>
@@ -14057,6 +14123,9 @@
       <c r="B513" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C513" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D513" t="s">
         <v>965</v>
       </c>
@@ -14071,6 +14140,9 @@
       <c r="B514" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C514" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D514" t="s">
         <v>966</v>
       </c>
@@ -14085,6 +14157,9 @@
       <c r="B515" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C515" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D515" t="s">
         <v>967</v>
       </c>
@@ -14099,6 +14174,9 @@
       <c r="B516" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C516" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D516" t="s">
         <v>968</v>
       </c>
@@ -14113,6 +14191,9 @@
       <c r="B517" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C517" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D517" t="s">
         <v>969</v>
       </c>
@@ -14127,6 +14208,9 @@
       <c r="B518" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C518" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D518" t="s">
         <v>970</v>
       </c>
@@ -14141,6 +14225,9 @@
       <c r="B519" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C519" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D519" t="s">
         <v>971</v>
       </c>
@@ -14155,6 +14242,9 @@
       <c r="B520" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C520" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D520" t="s">
         <v>972</v>
       </c>
@@ -14169,6 +14259,9 @@
       <c r="B521" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C521" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D521" t="s">
         <v>973</v>
       </c>
@@ -14183,6 +14276,9 @@
       <c r="B522" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C522" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D522" t="s">
         <v>974</v>
       </c>
@@ -14197,6 +14293,9 @@
       <c r="B523" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C523" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D523" t="s">
         <v>975</v>
       </c>
@@ -14211,6 +14310,9 @@
       <c r="B524" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C524" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D524" t="s">
         <v>976</v>
       </c>
@@ -14225,6 +14327,9 @@
       <c r="B525" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C525" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D525" t="s">
         <v>977</v>
       </c>
@@ -14239,6 +14344,9 @@
       <c r="B526" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C526" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D526" t="s">
         <v>978</v>
       </c>
@@ -14253,6 +14361,9 @@
       <c r="B527" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C527" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D527" t="s">
         <v>979</v>
       </c>
@@ -14267,6 +14378,9 @@
       <c r="B528" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C528" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D528" t="s">
         <v>1013</v>
       </c>
@@ -14281,6 +14395,9 @@
       <c r="B529" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C529" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D529" t="s">
         <v>1014</v>
       </c>
@@ -14295,6 +14412,9 @@
       <c r="B530" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C530" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D530" t="s">
         <v>1015</v>
       </c>
@@ -14309,6 +14429,9 @@
       <c r="B531" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C531" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D531" t="s">
         <v>1016</v>
       </c>
@@ -14323,6 +14446,9 @@
       <c r="B532" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C532" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D532" t="s">
         <v>1017</v>
       </c>
@@ -14337,6 +14463,9 @@
       <c r="B533" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C533" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D533" t="s">
         <v>1018</v>
       </c>
@@ -14351,6 +14480,9 @@
       <c r="B534" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C534" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D534" t="s">
         <v>1019</v>
       </c>
@@ -14365,6 +14497,9 @@
       <c r="B535" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C535" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D535" t="s">
         <v>1020</v>
       </c>
@@ -14379,6 +14514,9 @@
       <c r="B536" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C536" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D536" t="s">
         <v>1021</v>
       </c>
@@ -14393,6 +14531,9 @@
       <c r="B537" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C537" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D537" t="s">
         <v>1022</v>
       </c>
@@ -14407,6 +14548,9 @@
       <c r="B538" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C538" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D538" t="s">
         <v>1023</v>
       </c>
@@ -14421,6 +14565,9 @@
       <c r="B539" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C539" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D539" t="s">
         <v>1024</v>
       </c>
@@ -14435,6 +14582,9 @@
       <c r="B540" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C540" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D540" t="s">
         <v>1025</v>
       </c>
@@ -14449,6 +14599,9 @@
       <c r="B541" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C541" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D541" t="s">
         <v>1026</v>
       </c>
@@ -14463,6 +14616,9 @@
       <c r="B542" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C542" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D542" t="s">
         <v>1027</v>
       </c>
@@ -14477,6 +14633,9 @@
       <c r="B543" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C543" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D543" t="s">
         <v>1028</v>
       </c>
@@ -14491,6 +14650,9 @@
       <c r="B544" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C544" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D544" t="s">
         <v>1029</v>
       </c>
@@ -14505,6 +14667,9 @@
       <c r="B545" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C545" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D545" t="s">
         <v>1030</v>
       </c>
@@ -14519,6 +14684,9 @@
       <c r="B546" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C546" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D546" t="s">
         <v>1031</v>
       </c>
@@ -14533,6 +14701,9 @@
       <c r="B547" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C547" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D547" t="s">
         <v>1032</v>
       </c>
@@ -14544,6 +14715,9 @@
       <c r="B548" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C548" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D548" t="s">
         <v>1033</v>
       </c>
@@ -14558,6 +14732,9 @@
       <c r="B549" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C549" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D549" t="s">
         <v>1034</v>
       </c>
@@ -14572,6 +14749,9 @@
       <c r="B550" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C550" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D550" t="s">
         <v>1035</v>
       </c>
@@ -14586,6 +14766,9 @@
       <c r="B551" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C551" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D551" t="s">
         <v>1036</v>
       </c>
@@ -14600,6 +14783,9 @@
       <c r="B552" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C552" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D552" t="s">
         <v>1037</v>
       </c>
@@ -14614,6 +14800,9 @@
       <c r="B553" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C553" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D553" t="s">
         <v>1038</v>
       </c>
@@ -14628,6 +14817,9 @@
       <c r="B554" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C554" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D554" t="s">
         <v>1039</v>
       </c>
@@ -14642,6 +14834,9 @@
       <c r="B555" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C555" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D555" t="s">
         <v>1040</v>
       </c>
@@ -14656,6 +14851,9 @@
       <c r="B556" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C556" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D556" t="s">
         <v>1041</v>
       </c>
@@ -14670,6 +14868,9 @@
       <c r="B557" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C557" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D557" t="s">
         <v>1042</v>
       </c>
@@ -14684,6 +14885,9 @@
       <c r="B558" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C558" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D558" t="s">
         <v>1043</v>
       </c>
@@ -14698,6 +14902,9 @@
       <c r="B559" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C559" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D559" t="s">
         <v>1044</v>
       </c>
@@ -14712,6 +14919,9 @@
       <c r="B560" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C560" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D560" t="s">
         <v>1045</v>
       </c>
@@ -14723,6 +14933,9 @@
       <c r="B561" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C561" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D561" t="s">
         <v>1046</v>
       </c>
@@ -14737,6 +14950,9 @@
       <c r="B562" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C562" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D562" t="s">
         <v>1047</v>
       </c>
@@ -14751,6 +14967,9 @@
       <c r="B563" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C563" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D563" t="s">
         <v>1048</v>
       </c>
@@ -14765,6 +14984,9 @@
       <c r="B564" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C564" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D564" t="s">
         <v>1083</v>
       </c>
@@ -14779,6 +15001,9 @@
       <c r="B565" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C565" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D565" t="s">
         <v>1084</v>
       </c>
@@ -14793,6 +15018,9 @@
       <c r="B566" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C566" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D566" t="s">
         <v>1085</v>
       </c>
@@ -14804,6 +15032,9 @@
       <c r="B567" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C567" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D567" t="s">
         <v>1086</v>
       </c>
@@ -14818,6 +15049,9 @@
       <c r="B568" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C568" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D568" t="s">
         <v>1087</v>
       </c>
@@ -14832,6 +15066,9 @@
       <c r="B569" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C569" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D569" t="s">
         <v>1088</v>
       </c>
@@ -14846,6 +15083,9 @@
       <c r="B570" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C570" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D570" t="s">
         <v>1089</v>
       </c>
@@ -14860,6 +15100,9 @@
       <c r="B571" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C571" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D571" t="s">
         <v>1090</v>
       </c>
@@ -14874,6 +15117,9 @@
       <c r="B572" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C572" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D572" t="s">
         <v>1091</v>
       </c>
@@ -14888,6 +15134,9 @@
       <c r="B573" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C573" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D573" t="s">
         <v>1092</v>
       </c>
@@ -14902,6 +15151,9 @@
       <c r="B574" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C574" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D574" t="s">
         <v>1093</v>
       </c>
@@ -14916,6 +15168,9 @@
       <c r="B575" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C575" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D575" t="s">
         <v>1094</v>
       </c>
@@ -14930,6 +15185,9 @@
       <c r="B576" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C576" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D576" t="s">
         <v>1095</v>
       </c>
@@ -14944,6 +15202,9 @@
       <c r="B577" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C577" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D577" t="s">
         <v>1096</v>
       </c>
@@ -14958,6 +15219,9 @@
       <c r="B578" s="7" t="s">
         <v>943</v>
       </c>
+      <c r="C578" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D578" t="s">
         <v>1097</v>
       </c>
@@ -14972,6 +15236,9 @@
       <c r="B579" t="s">
         <v>1112</v>
       </c>
+      <c r="C579" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D579" t="s">
         <v>1113</v>
       </c>
@@ -14986,6 +15253,9 @@
       <c r="B580" t="s">
         <v>1112</v>
       </c>
+      <c r="C580" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D580" t="s">
         <v>1114</v>
       </c>
@@ -15000,6 +15270,9 @@
       <c r="B581" t="s">
         <v>1112</v>
       </c>
+      <c r="C581" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D581" t="s">
         <v>1115</v>
       </c>
@@ -15014,6 +15287,9 @@
       <c r="B582" t="s">
         <v>1112</v>
       </c>
+      <c r="C582" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D582" t="s">
         <v>1116</v>
       </c>
@@ -15028,6 +15304,9 @@
       <c r="B583" t="s">
         <v>1112</v>
       </c>
+      <c r="C583" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D583" t="s">
         <v>1117</v>
       </c>
@@ -15042,6 +15321,9 @@
       <c r="B584" t="s">
         <v>1112</v>
       </c>
+      <c r="C584" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D584" t="s">
         <v>1118</v>
       </c>
@@ -15056,6 +15338,9 @@
       <c r="B585" t="s">
         <v>1112</v>
       </c>
+      <c r="C585" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D585" t="s">
         <v>1119</v>
       </c>
@@ -15070,6 +15355,9 @@
       <c r="B586" t="s">
         <v>1112</v>
       </c>
+      <c r="C586" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D586" t="s">
         <v>1120</v>
       </c>
@@ -15084,6 +15372,9 @@
       <c r="B587" t="s">
         <v>1112</v>
       </c>
+      <c r="C587" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D587" t="s">
         <v>1121</v>
       </c>
@@ -15098,6 +15389,9 @@
       <c r="B588" t="s">
         <v>1112</v>
       </c>
+      <c r="C588" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D588" t="s">
         <v>1122</v>
       </c>
@@ -15112,6 +15406,9 @@
       <c r="B589" t="s">
         <v>1112</v>
       </c>
+      <c r="C589" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D589" t="s">
         <v>1123</v>
       </c>
@@ -15126,6 +15423,9 @@
       <c r="B590" t="s">
         <v>1112</v>
       </c>
+      <c r="C590" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D590" t="s">
         <v>1124</v>
       </c>
@@ -15140,6 +15440,9 @@
       <c r="B591" t="s">
         <v>1112</v>
       </c>
+      <c r="C591" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D591" t="s">
         <v>1125</v>
       </c>
@@ -15154,6 +15457,9 @@
       <c r="B592" t="s">
         <v>1112</v>
       </c>
+      <c r="C592" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D592" t="s">
         <v>1126</v>
       </c>
@@ -15168,6 +15474,9 @@
       <c r="B593" t="s">
         <v>1112</v>
       </c>
+      <c r="C593" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D593" t="s">
         <v>1127</v>
       </c>
@@ -15182,6 +15491,9 @@
       <c r="B594" t="s">
         <v>1112</v>
       </c>
+      <c r="C594" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D594" t="s">
         <v>1128</v>
       </c>
@@ -15196,6 +15508,9 @@
       <c r="B595" t="s">
         <v>1112</v>
       </c>
+      <c r="C595" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D595" t="s">
         <v>1129</v>
       </c>
@@ -15210,6 +15525,9 @@
       <c r="B596" t="s">
         <v>1112</v>
       </c>
+      <c r="C596" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D596" t="s">
         <v>1130</v>
       </c>
@@ -15224,6 +15542,9 @@
       <c r="B597" t="s">
         <v>1112</v>
       </c>
+      <c r="C597" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D597" t="s">
         <v>1131</v>
       </c>
@@ -15238,6 +15559,9 @@
       <c r="B598" t="s">
         <v>1112</v>
       </c>
+      <c r="C598" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D598" t="s">
         <v>1132</v>
       </c>
@@ -15252,6 +15576,9 @@
       <c r="B599" t="s">
         <v>1112</v>
       </c>
+      <c r="C599" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D599" t="s">
         <v>1133</v>
       </c>
@@ -15266,6 +15593,9 @@
       <c r="B600" t="s">
         <v>1112</v>
       </c>
+      <c r="C600" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D600" t="s">
         <v>1134</v>
       </c>
@@ -15280,6 +15610,9 @@
       <c r="B601" t="s">
         <v>1112</v>
       </c>
+      <c r="C601" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D601" t="s">
         <v>1135</v>
       </c>
@@ -15294,6 +15627,9 @@
       <c r="B602" t="s">
         <v>1112</v>
       </c>
+      <c r="C602" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D602" t="s">
         <v>1136</v>
       </c>
@@ -15308,6 +15644,9 @@
       <c r="B603" t="s">
         <v>1112</v>
       </c>
+      <c r="C603" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D603" t="s">
         <v>1137</v>
       </c>
@@ -15322,6 +15661,9 @@
       <c r="B604" t="s">
         <v>1112</v>
       </c>
+      <c r="C604" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D604" t="s">
         <v>1138</v>
       </c>
@@ -15336,6 +15678,9 @@
       <c r="B605" t="s">
         <v>1112</v>
       </c>
+      <c r="C605" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D605" t="s">
         <v>1139</v>
       </c>
@@ -15350,6 +15695,9 @@
       <c r="B606" t="s">
         <v>1112</v>
       </c>
+      <c r="C606" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D606" t="s">
         <v>1140</v>
       </c>
@@ -15364,6 +15712,9 @@
       <c r="B607" t="s">
         <v>1112</v>
       </c>
+      <c r="C607" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D607" t="s">
         <v>1141</v>
       </c>
@@ -15378,6 +15729,9 @@
       <c r="B608" t="s">
         <v>1112</v>
       </c>
+      <c r="C608" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D608" t="s">
         <v>1142</v>
       </c>
@@ -15392,6 +15746,9 @@
       <c r="B609" t="s">
         <v>1112</v>
       </c>
+      <c r="C609" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D609" t="s">
         <v>1143</v>
       </c>
@@ -15406,6 +15763,9 @@
       <c r="B610" t="s">
         <v>1112</v>
       </c>
+      <c r="C610" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D610" t="s">
         <v>1144</v>
       </c>
@@ -15420,6 +15780,9 @@
       <c r="B611" t="s">
         <v>1112</v>
       </c>
+      <c r="C611" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D611" t="s">
         <v>1145</v>
       </c>
@@ -15434,6 +15797,9 @@
       <c r="B612" t="s">
         <v>1112</v>
       </c>
+      <c r="C612" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D612" t="s">
         <v>1146</v>
       </c>
@@ -15448,6 +15814,9 @@
       <c r="B613" t="s">
         <v>1112</v>
       </c>
+      <c r="C613" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D613" t="s">
         <v>1147</v>
       </c>
@@ -15459,6 +15828,9 @@
       <c r="B614" t="s">
         <v>1112</v>
       </c>
+      <c r="C614" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D614" t="s">
         <v>1148</v>
       </c>
@@ -15473,6 +15845,9 @@
       <c r="B615" t="s">
         <v>1112</v>
       </c>
+      <c r="C615" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D615" t="s">
         <v>1179</v>
       </c>
@@ -15487,6 +15862,9 @@
       <c r="B616" t="s">
         <v>1112</v>
       </c>
+      <c r="C616" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D616" t="s">
         <v>1180</v>
       </c>
@@ -15501,6 +15879,9 @@
       <c r="B617" t="s">
         <v>1112</v>
       </c>
+      <c r="C617" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D617" t="s">
         <v>1181</v>
       </c>
@@ -15515,6 +15896,9 @@
       <c r="B618" t="s">
         <v>1112</v>
       </c>
+      <c r="C618" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D618" t="s">
         <v>1182</v>
       </c>
@@ -15529,6 +15913,9 @@
       <c r="B619" t="s">
         <v>1112</v>
       </c>
+      <c r="C619" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D619" t="s">
         <v>1183</v>
       </c>
@@ -15543,6 +15930,9 @@
       <c r="B620" t="s">
         <v>1112</v>
       </c>
+      <c r="C620" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D620" t="s">
         <v>1184</v>
       </c>
@@ -15557,6 +15947,9 @@
       <c r="B621" t="s">
         <v>1112</v>
       </c>
+      <c r="C621" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D621" t="s">
         <v>1185</v>
       </c>
@@ -15571,6 +15964,9 @@
       <c r="B622" t="s">
         <v>1112</v>
       </c>
+      <c r="C622" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D622" t="s">
         <v>1186</v>
       </c>
@@ -15585,6 +15981,9 @@
       <c r="B623" t="s">
         <v>1112</v>
       </c>
+      <c r="C623" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D623" t="s">
         <v>1187</v>
       </c>
@@ -15599,6 +15998,9 @@
       <c r="B624" t="s">
         <v>1112</v>
       </c>
+      <c r="C624" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D624" t="s">
         <v>1188</v>
       </c>
@@ -15613,6 +16015,9 @@
       <c r="B625" t="s">
         <v>1112</v>
       </c>
+      <c r="C625" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D625" t="s">
         <v>1189</v>
       </c>
@@ -15627,6 +16032,9 @@
       <c r="B626" t="s">
         <v>1112</v>
       </c>
+      <c r="C626" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D626" t="s">
         <v>1190</v>
       </c>
@@ -15641,6 +16049,9 @@
       <c r="B627" t="s">
         <v>1112</v>
       </c>
+      <c r="C627" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D627" t="s">
         <v>1191</v>
       </c>
@@ -15655,6 +16066,9 @@
       <c r="B628" t="s">
         <v>1112</v>
       </c>
+      <c r="C628" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D628" t="s">
         <v>1192</v>
       </c>
@@ -15669,6 +16083,9 @@
       <c r="B629" t="s">
         <v>1112</v>
       </c>
+      <c r="C629" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D629" t="s">
         <v>1193</v>
       </c>
@@ -15683,6 +16100,9 @@
       <c r="B630" t="s">
         <v>1112</v>
       </c>
+      <c r="C630" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D630" t="s">
         <v>1194</v>
       </c>
@@ -15697,6 +16117,9 @@
       <c r="B631" t="s">
         <v>1112</v>
       </c>
+      <c r="C631" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D631" t="s">
         <v>1195</v>
       </c>
@@ -15711,6 +16134,9 @@
       <c r="B632" t="s">
         <v>1112</v>
       </c>
+      <c r="C632" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D632" t="s">
         <v>1196</v>
       </c>
@@ -15725,6 +16151,9 @@
       <c r="B633" t="s">
         <v>1112</v>
       </c>
+      <c r="C633" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D633" t="s">
         <v>1197</v>
       </c>
@@ -15739,6 +16168,9 @@
       <c r="B634" t="s">
         <v>1112</v>
       </c>
+      <c r="C634" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D634" t="s">
         <v>1198</v>
       </c>
@@ -15753,6 +16185,9 @@
       <c r="B635" t="s">
         <v>1112</v>
       </c>
+      <c r="C635" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D635" t="s">
         <v>1199</v>
       </c>
@@ -15767,6 +16202,9 @@
       <c r="B636" t="s">
         <v>1112</v>
       </c>
+      <c r="C636" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D636" t="s">
         <v>1200</v>
       </c>
@@ -15781,6 +16219,9 @@
       <c r="B637" t="s">
         <v>1112</v>
       </c>
+      <c r="C637" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D637" t="s">
         <v>1201</v>
       </c>
@@ -15795,6 +16236,9 @@
       <c r="B638" t="s">
         <v>1112</v>
       </c>
+      <c r="C638" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D638" t="s">
         <v>1202</v>
       </c>
@@ -15809,6 +16253,9 @@
       <c r="B639" t="s">
         <v>1112</v>
       </c>
+      <c r="C639" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D639" t="s">
         <v>1203</v>
       </c>
@@ -15823,6 +16270,9 @@
       <c r="B640" t="s">
         <v>1112</v>
       </c>
+      <c r="C640" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D640" t="s">
         <v>1204</v>
       </c>
@@ -15837,6 +16287,9 @@
       <c r="B641" t="s">
         <v>1112</v>
       </c>
+      <c r="C641" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D641" t="s">
         <v>1205</v>
       </c>
@@ -15851,6 +16304,9 @@
       <c r="B642" t="s">
         <v>1112</v>
       </c>
+      <c r="C642" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D642" t="s">
         <v>1206</v>
       </c>
@@ -15865,6 +16321,9 @@
       <c r="B643" t="s">
         <v>1112</v>
       </c>
+      <c r="C643" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D643" t="s">
         <v>1207</v>
       </c>
@@ -15879,6 +16338,9 @@
       <c r="B644" t="s">
         <v>1112</v>
       </c>
+      <c r="C644" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D644" t="s">
         <v>1208</v>
       </c>
@@ -15893,6 +16355,9 @@
       <c r="B645" t="s">
         <v>1112</v>
       </c>
+      <c r="C645" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D645" t="s">
         <v>1209</v>
       </c>
@@ -15907,6 +16372,9 @@
       <c r="B646" t="s">
         <v>1112</v>
       </c>
+      <c r="C646" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D646" t="s">
         <v>1210</v>
       </c>
@@ -15921,6 +16389,9 @@
       <c r="B647" t="s">
         <v>1112</v>
       </c>
+      <c r="C647" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D647" t="s">
         <v>1211</v>
       </c>
@@ -15935,6 +16406,9 @@
       <c r="B648" t="s">
         <v>1112</v>
       </c>
+      <c r="C648" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D648" t="s">
         <v>1241</v>
       </c>
@@ -15949,6 +16423,9 @@
       <c r="B649" t="s">
         <v>1112</v>
       </c>
+      <c r="C649" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D649" t="s">
         <v>1242</v>
       </c>
@@ -15963,6 +16440,9 @@
       <c r="B650" t="s">
         <v>1112</v>
       </c>
+      <c r="C650" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D650" t="s">
         <v>1243</v>
       </c>
@@ -15977,6 +16457,9 @@
       <c r="B651" t="s">
         <v>1112</v>
       </c>
+      <c r="C651" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D651" t="s">
         <v>1244</v>
       </c>
@@ -15991,6 +16474,9 @@
       <c r="B652" t="s">
         <v>1112</v>
       </c>
+      <c r="C652" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D652" t="s">
         <v>1245</v>
       </c>
@@ -16005,6 +16491,9 @@
       <c r="B653" t="s">
         <v>1112</v>
       </c>
+      <c r="C653" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D653" t="s">
         <v>1246</v>
       </c>
@@ -16019,6 +16508,9 @@
       <c r="B654" t="s">
         <v>1112</v>
       </c>
+      <c r="C654" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D654" t="s">
         <v>1247</v>
       </c>
@@ -16033,6 +16525,9 @@
       <c r="B655" t="s">
         <v>1112</v>
       </c>
+      <c r="C655" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D655" t="s">
         <v>1248</v>
       </c>
@@ -16047,6 +16542,9 @@
       <c r="B656" t="s">
         <v>1112</v>
       </c>
+      <c r="C656" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D656" t="s">
         <v>1249</v>
       </c>
@@ -16061,6 +16559,9 @@
       <c r="B657" t="s">
         <v>1112</v>
       </c>
+      <c r="C657" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D657" t="s">
         <v>1250</v>
       </c>
@@ -16075,6 +16576,9 @@
       <c r="B658" t="s">
         <v>1112</v>
       </c>
+      <c r="C658" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D658" t="s">
         <v>1251</v>
       </c>
@@ -16089,6 +16593,9 @@
       <c r="B659" t="s">
         <v>1112</v>
       </c>
+      <c r="C659" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D659" t="s">
         <v>1252</v>
       </c>
@@ -16103,6 +16610,9 @@
       <c r="B660" t="s">
         <v>1112</v>
       </c>
+      <c r="C660" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D660" t="s">
         <v>1253</v>
       </c>
@@ -16117,6 +16627,9 @@
       <c r="B661" t="s">
         <v>1112</v>
       </c>
+      <c r="C661" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D661" t="s">
         <v>1254</v>
       </c>
@@ -16131,6 +16644,9 @@
       <c r="B662" t="s">
         <v>1269</v>
       </c>
+      <c r="C662" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D662" t="s">
         <v>1270</v>
       </c>
@@ -16145,6 +16661,9 @@
       <c r="B663" t="s">
         <v>1269</v>
       </c>
+      <c r="C663" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D663">
         <v>7805</v>
       </c>
@@ -16159,6 +16678,9 @@
       <c r="B664" t="s">
         <v>1269</v>
       </c>
+      <c r="C664" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D664" t="s">
         <v>1271</v>
       </c>
@@ -16173,6 +16695,9 @@
       <c r="B665" t="s">
         <v>1269</v>
       </c>
+      <c r="C665" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D665" t="s">
         <v>1272</v>
       </c>
@@ -16187,6 +16712,9 @@
       <c r="B666" t="s">
         <v>1269</v>
       </c>
+      <c r="C666" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D666" t="s">
         <v>1273</v>
       </c>
@@ -16201,6 +16729,9 @@
       <c r="B667" t="s">
         <v>1269</v>
       </c>
+      <c r="C667" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D667" t="s">
         <v>1274</v>
       </c>
@@ -16215,6 +16746,9 @@
       <c r="B668" t="s">
         <v>1269</v>
       </c>
+      <c r="C668" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D668" t="s">
         <v>1275</v>
       </c>
@@ -16229,6 +16763,9 @@
       <c r="B669" t="s">
         <v>1269</v>
       </c>
+      <c r="C669" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D669" t="s">
         <v>1276</v>
       </c>
@@ -16243,6 +16780,9 @@
       <c r="B670" t="s">
         <v>1269</v>
       </c>
+      <c r="C670" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D670" t="s">
         <v>1277</v>
       </c>
@@ -16257,6 +16797,9 @@
       <c r="B671" t="s">
         <v>1269</v>
       </c>
+      <c r="C671" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D671" t="s">
         <v>1278</v>
       </c>
@@ -16271,6 +16814,9 @@
       <c r="B672" t="s">
         <v>1269</v>
       </c>
+      <c r="C672" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D672" t="s">
         <v>1279</v>
       </c>
@@ -16285,6 +16831,9 @@
       <c r="B673" t="s">
         <v>1269</v>
       </c>
+      <c r="C673" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D673" t="s">
         <v>1280</v>
       </c>
@@ -16299,6 +16848,9 @@
       <c r="B674" t="s">
         <v>1269</v>
       </c>
+      <c r="C674" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D674" t="s">
         <v>1281</v>
       </c>
@@ -16313,6 +16865,9 @@
       <c r="B675" t="s">
         <v>1269</v>
       </c>
+      <c r="C675" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D675" t="s">
         <v>1282</v>
       </c>
@@ -16327,6 +16882,9 @@
       <c r="B676" t="s">
         <v>1269</v>
       </c>
+      <c r="C676" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D676" t="s">
         <v>1283</v>
       </c>
@@ -16341,6 +16899,9 @@
       <c r="B677" t="s">
         <v>1269</v>
       </c>
+      <c r="C677" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D677" t="s">
         <v>1284</v>
       </c>
@@ -16355,6 +16916,9 @@
       <c r="B678" t="s">
         <v>1269</v>
       </c>
+      <c r="C678" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D678" t="s">
         <v>1285</v>
       </c>
@@ -16369,6 +16933,9 @@
       <c r="B679" t="s">
         <v>1269</v>
       </c>
+      <c r="C679" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D679" t="s">
         <v>1286</v>
       </c>
@@ -16383,6 +16950,9 @@
       <c r="B680" t="s">
         <v>1269</v>
       </c>
+      <c r="C680" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D680" t="s">
         <v>1287</v>
       </c>
@@ -16397,6 +16967,9 @@
       <c r="B681" t="s">
         <v>1269</v>
       </c>
+      <c r="C681" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D681" t="s">
         <v>1288</v>
       </c>
@@ -16411,6 +16984,9 @@
       <c r="B682" t="s">
         <v>1309</v>
       </c>
+      <c r="C682" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D682" t="s">
         <v>1310</v>
       </c>
@@ -16425,6 +17001,9 @@
       <c r="B683" t="s">
         <v>1309</v>
       </c>
+      <c r="C683" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D683" t="s">
         <v>1311</v>
       </c>
@@ -16439,6 +17018,9 @@
       <c r="B684" t="s">
         <v>1309</v>
       </c>
+      <c r="C684" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D684" t="s">
         <v>1312</v>
       </c>
@@ -16453,6 +17035,9 @@
       <c r="B685" t="s">
         <v>1309</v>
       </c>
+      <c r="C685" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D685" t="s">
         <v>1313</v>
       </c>
@@ -16467,6 +17052,9 @@
       <c r="B686" t="s">
         <v>1309</v>
       </c>
+      <c r="C686" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D686" t="s">
         <v>1314</v>
       </c>
@@ -16481,6 +17069,9 @@
       <c r="B687" t="s">
         <v>1369</v>
       </c>
+      <c r="C687" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D687" t="s">
         <v>1320</v>
       </c>
@@ -16495,6 +17086,9 @@
       <c r="B688" t="s">
         <v>1369</v>
       </c>
+      <c r="C688" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D688" t="s">
         <v>1321</v>
       </c>
@@ -16509,6 +17103,9 @@
       <c r="B689" t="s">
         <v>1369</v>
       </c>
+      <c r="C689" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D689" t="s">
         <v>1322</v>
       </c>
@@ -16523,6 +17120,9 @@
       <c r="B690" t="s">
         <v>1369</v>
       </c>
+      <c r="C690" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D690" t="s">
         <v>1323</v>
       </c>
@@ -16537,6 +17137,9 @@
       <c r="B691" t="s">
         <v>1369</v>
       </c>
+      <c r="C691" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D691" t="s">
         <v>1324</v>
       </c>
@@ -16551,6 +17154,9 @@
       <c r="B692" t="s">
         <v>1369</v>
       </c>
+      <c r="C692" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D692" t="s">
         <v>1325</v>
       </c>
@@ -16565,6 +17171,9 @@
       <c r="B693" t="s">
         <v>1369</v>
       </c>
+      <c r="C693" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D693" t="s">
         <v>1326</v>
       </c>
@@ -16579,6 +17188,9 @@
       <c r="B694" t="s">
         <v>1369</v>
       </c>
+      <c r="C694" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D694" t="s">
         <v>1327</v>
       </c>
@@ -16593,6 +17205,9 @@
       <c r="B695" t="s">
         <v>1369</v>
       </c>
+      <c r="C695" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D695" t="s">
         <v>1328</v>
       </c>
@@ -16607,6 +17222,9 @@
       <c r="B696" t="s">
         <v>1369</v>
       </c>
+      <c r="C696" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D696" t="s">
         <v>1329</v>
       </c>
@@ -16621,6 +17239,9 @@
       <c r="B697" t="s">
         <v>1369</v>
       </c>
+      <c r="C697" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D697" t="s">
         <v>1330</v>
       </c>
@@ -16635,6 +17256,9 @@
       <c r="B698" t="s">
         <v>1369</v>
       </c>
+      <c r="C698" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D698" t="s">
         <v>1331</v>
       </c>
@@ -16649,6 +17273,9 @@
       <c r="B699" t="s">
         <v>1369</v>
       </c>
+      <c r="C699" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D699" t="s">
         <v>1332</v>
       </c>
@@ -16663,6 +17290,9 @@
       <c r="B700" t="s">
         <v>1369</v>
       </c>
+      <c r="C700" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D700" t="s">
         <v>1333</v>
       </c>
@@ -16677,6 +17307,9 @@
       <c r="B701" t="s">
         <v>1369</v>
       </c>
+      <c r="C701" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D701" t="s">
         <v>1334</v>
       </c>
@@ -16691,6 +17324,9 @@
       <c r="B702" t="s">
         <v>1369</v>
       </c>
+      <c r="C702" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D702" t="s">
         <v>1335</v>
       </c>
@@ -16705,6 +17341,9 @@
       <c r="B703" t="s">
         <v>1369</v>
       </c>
+      <c r="C703" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D703" t="s">
         <v>1336</v>
       </c>
@@ -16719,6 +17358,9 @@
       <c r="B704" t="s">
         <v>1369</v>
       </c>
+      <c r="C704" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D704" t="s">
         <v>1337</v>
       </c>
@@ -16733,6 +17375,9 @@
       <c r="B705" t="s">
         <v>1369</v>
       </c>
+      <c r="C705" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D705" t="s">
         <v>1338</v>
       </c>
@@ -16747,6 +17392,9 @@
       <c r="B706" t="s">
         <v>1369</v>
       </c>
+      <c r="C706" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D706" t="s">
         <v>1339</v>
       </c>
@@ -16761,6 +17409,9 @@
       <c r="B707" t="s">
         <v>1369</v>
       </c>
+      <c r="C707" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D707" t="s">
         <v>1340</v>
       </c>
@@ -16775,6 +17426,9 @@
       <c r="B708" t="s">
         <v>1369</v>
       </c>
+      <c r="C708" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D708" t="s">
         <v>1341</v>
       </c>
@@ -16789,6 +17443,9 @@
       <c r="B709" t="s">
         <v>1369</v>
       </c>
+      <c r="C709" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D709" t="s">
         <v>1342</v>
       </c>
@@ -16803,6 +17460,9 @@
       <c r="B710" t="s">
         <v>1369</v>
       </c>
+      <c r="C710" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D710" t="s">
         <v>1343</v>
       </c>
@@ -16817,6 +17477,9 @@
       <c r="B711" t="s">
         <v>1369</v>
       </c>
+      <c r="C711" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D711" t="s">
         <v>1344</v>
       </c>
@@ -16831,6 +17494,9 @@
       <c r="B712" t="s">
         <v>1370</v>
       </c>
+      <c r="C712" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D712" t="s">
         <v>1371</v>
       </c>
@@ -16845,6 +17511,9 @@
       <c r="B713" t="s">
         <v>1370</v>
       </c>
+      <c r="C713" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D713" t="s">
         <v>1372</v>
       </c>
@@ -16859,6 +17528,9 @@
       <c r="B714" t="s">
         <v>1370</v>
       </c>
+      <c r="C714" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D714" t="s">
         <v>1373</v>
       </c>
@@ -16873,6 +17545,9 @@
       <c r="B715" t="s">
         <v>1370</v>
       </c>
+      <c r="C715" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D715" t="s">
         <v>1374</v>
       </c>
@@ -16887,6 +17562,9 @@
       <c r="B716" t="s">
         <v>1370</v>
       </c>
+      <c r="C716" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D716" t="s">
         <v>1375</v>
       </c>
@@ -16901,6 +17579,9 @@
       <c r="B717" t="s">
         <v>1370</v>
       </c>
+      <c r="C717" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D717" t="s">
         <v>1376</v>
       </c>
@@ -16915,6 +17596,9 @@
       <c r="B718" t="s">
         <v>1370</v>
       </c>
+      <c r="C718" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D718" t="s">
         <v>1377</v>
       </c>
@@ -16929,6 +17613,9 @@
       <c r="B719" t="s">
         <v>1370</v>
       </c>
+      <c r="C719" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D719" t="s">
         <v>1378</v>
       </c>
@@ -16943,6 +17630,9 @@
       <c r="B720" t="s">
         <v>1370</v>
       </c>
+      <c r="C720" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D720" t="s">
         <v>1379</v>
       </c>
@@ -16957,6 +17647,9 @@
       <c r="B721" t="s">
         <v>1370</v>
       </c>
+      <c r="C721" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D721" t="s">
         <v>1380</v>
       </c>
@@ -16971,6 +17664,9 @@
       <c r="B722" t="s">
         <v>1370</v>
       </c>
+      <c r="C722" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D722" t="s">
         <v>1381</v>
       </c>
@@ -16985,6 +17681,9 @@
       <c r="B723" t="s">
         <v>1370</v>
       </c>
+      <c r="C723" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D723" t="s">
         <v>1382</v>
       </c>
@@ -16999,6 +17698,9 @@
       <c r="B724" t="s">
         <v>1370</v>
       </c>
+      <c r="C724" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D724" t="s">
         <v>1383</v>
       </c>
@@ -17013,6 +17715,9 @@
       <c r="B725" t="s">
         <v>1370</v>
       </c>
+      <c r="C725" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D725" t="s">
         <v>1384</v>
       </c>
@@ -17027,6 +17732,9 @@
       <c r="B726" t="s">
         <v>1370</v>
       </c>
+      <c r="C726" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D726" t="s">
         <v>1385</v>
       </c>
@@ -17041,6 +17749,9 @@
       <c r="B727" t="s">
         <v>1399</v>
       </c>
+      <c r="C727" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D727" t="s">
         <v>1400</v>
       </c>
@@ -17055,6 +17766,9 @@
       <c r="B728" t="s">
         <v>1399</v>
       </c>
+      <c r="C728" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D728" t="s">
         <v>1401</v>
       </c>
@@ -17069,6 +17783,9 @@
       <c r="B729" t="s">
         <v>1399</v>
       </c>
+      <c r="C729" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D729" t="s">
         <v>1402</v>
       </c>
@@ -17083,6 +17800,9 @@
       <c r="B730" t="s">
         <v>1399</v>
       </c>
+      <c r="C730" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D730" t="s">
         <v>1403</v>
       </c>
@@ -17097,6 +17817,9 @@
       <c r="B731" t="s">
         <v>1399</v>
       </c>
+      <c r="C731" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D731" t="s">
         <v>1404</v>
       </c>
@@ -17111,6 +17834,9 @@
       <c r="B732" t="s">
         <v>1399</v>
       </c>
+      <c r="C732" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D732" t="s">
         <v>1405</v>
       </c>
@@ -17125,6 +17851,9 @@
       <c r="B733" t="s">
         <v>1399</v>
       </c>
+      <c r="C733" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D733" t="s">
         <v>1406</v>
       </c>
@@ -17139,6 +17868,9 @@
       <c r="B734" t="s">
         <v>1399</v>
       </c>
+      <c r="C734" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D734" t="s">
         <v>1407</v>
       </c>
@@ -17153,6 +17885,9 @@
       <c r="B735" t="s">
         <v>1399</v>
       </c>
+      <c r="C735" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D735" t="s">
         <v>1408</v>
       </c>
@@ -17167,6 +17902,9 @@
       <c r="B736" t="s">
         <v>1399</v>
       </c>
+      <c r="C736" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D736" t="s">
         <v>1409</v>
       </c>
@@ -17181,6 +17919,9 @@
       <c r="B737" t="s">
         <v>1399</v>
       </c>
+      <c r="C737" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D737" t="s">
         <v>1410</v>
       </c>
@@ -17195,6 +17936,9 @@
       <c r="B738" t="s">
         <v>1399</v>
       </c>
+      <c r="C738" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D738" t="s">
         <v>1411</v>
       </c>
@@ -17209,6 +17953,9 @@
       <c r="B739" t="s">
         <v>1399</v>
       </c>
+      <c r="C739" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D739" t="s">
         <v>1412</v>
       </c>
@@ -17223,6 +17970,9 @@
       <c r="B740" t="s">
         <v>1399</v>
       </c>
+      <c r="C740" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D740" t="s">
         <v>1413</v>
       </c>
@@ -17237,6 +17987,9 @@
       <c r="B741" t="s">
         <v>1399</v>
       </c>
+      <c r="C741" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D741" t="s">
         <v>1414</v>
       </c>
@@ -17251,6 +18004,9 @@
       <c r="B742" t="s">
         <v>1399</v>
       </c>
+      <c r="C742" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D742" t="s">
         <v>1415</v>
       </c>
@@ -17265,6 +18021,9 @@
       <c r="B743" t="s">
         <v>1399</v>
       </c>
+      <c r="C743" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D743" t="s">
         <v>1416</v>
       </c>
@@ -17279,6 +18038,9 @@
       <c r="B744" t="s">
         <v>1399</v>
       </c>
+      <c r="C744" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D744" t="s">
         <v>1417</v>
       </c>
@@ -17293,6 +18055,9 @@
       <c r="B745" t="s">
         <v>1399</v>
       </c>
+      <c r="C745" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D745" t="s">
         <v>1418</v>
       </c>
@@ -17307,6 +18072,9 @@
       <c r="B746" t="s">
         <v>1438</v>
       </c>
+      <c r="C746" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D746" t="s">
         <v>1439</v>
       </c>
@@ -17321,6 +18089,9 @@
       <c r="B747" t="s">
         <v>1438</v>
       </c>
+      <c r="C747" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D747" t="s">
         <v>1440</v>
       </c>
@@ -17335,6 +18106,9 @@
       <c r="B748" t="s">
         <v>1438</v>
       </c>
+      <c r="C748" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D748" t="s">
         <v>1441</v>
       </c>
@@ -17349,6 +18123,9 @@
       <c r="B749" t="s">
         <v>1438</v>
       </c>
+      <c r="C749" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D749" t="s">
         <v>1442</v>
       </c>
@@ -17363,6 +18140,9 @@
       <c r="B750" t="s">
         <v>1438</v>
       </c>
+      <c r="C750" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D750" t="s">
         <v>1443</v>
       </c>
@@ -17377,6 +18157,9 @@
       <c r="B751" t="s">
         <v>1438</v>
       </c>
+      <c r="C751" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D751" t="s">
         <v>1444</v>
       </c>
@@ -17391,6 +18174,9 @@
       <c r="B752" t="s">
         <v>1438</v>
       </c>
+      <c r="C752" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D752" t="s">
         <v>1445</v>
       </c>
@@ -17405,6 +18191,9 @@
       <c r="B753" t="s">
         <v>1438</v>
       </c>
+      <c r="C753" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D753" t="s">
         <v>1446</v>
       </c>
@@ -17419,6 +18208,9 @@
       <c r="B754" t="s">
         <v>1438</v>
       </c>
+      <c r="C754" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D754" t="s">
         <v>1447</v>
       </c>
@@ -17433,6 +18225,9 @@
       <c r="B755" t="s">
         <v>1438</v>
       </c>
+      <c r="C755" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D755" t="s">
         <v>1448</v>
       </c>
@@ -17447,6 +18242,9 @@
       <c r="B756" t="s">
         <v>1438</v>
       </c>
+      <c r="C756" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D756" t="s">
         <v>1449</v>
       </c>
@@ -17461,6 +18259,9 @@
       <c r="B757" t="s">
         <v>1438</v>
       </c>
+      <c r="C757" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D757" t="s">
         <v>1450</v>
       </c>
@@ -17475,6 +18276,9 @@
       <c r="B758" t="s">
         <v>1461</v>
       </c>
+      <c r="C758" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D758" t="s">
         <v>1462</v>
       </c>
@@ -17489,6 +18293,9 @@
       <c r="B759" t="s">
         <v>1461</v>
       </c>
+      <c r="C759" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D759" t="s">
         <v>1463</v>
       </c>
@@ -17503,6 +18310,9 @@
       <c r="B760" t="s">
         <v>1461</v>
       </c>
+      <c r="C760" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D760" t="s">
         <v>1464</v>
       </c>
@@ -17517,6 +18327,9 @@
       <c r="B761" t="s">
         <v>1461</v>
       </c>
+      <c r="C761" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D761" t="s">
         <v>1465</v>
       </c>
@@ -17531,6 +18344,9 @@
       <c r="B762" t="s">
         <v>1461</v>
       </c>
+      <c r="C762" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D762" t="s">
         <v>1466</v>
       </c>
@@ -17545,6 +18361,9 @@
       <c r="B763" t="s">
         <v>1461</v>
       </c>
+      <c r="C763" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D763" t="s">
         <v>1467</v>
       </c>
@@ -17559,6 +18378,9 @@
       <c r="B764" t="s">
         <v>1461</v>
       </c>
+      <c r="C764" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D764" t="s">
         <v>1468</v>
       </c>
@@ -17573,6 +18395,9 @@
       <c r="B765" t="s">
         <v>1461</v>
       </c>
+      <c r="C765" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D765" t="s">
         <v>1469</v>
       </c>
@@ -17587,6 +18412,9 @@
       <c r="B766" t="s">
         <v>1461</v>
       </c>
+      <c r="C766" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D766" t="s">
         <v>1470</v>
       </c>
@@ -17601,6 +18429,9 @@
       <c r="B767" t="s">
         <v>1461</v>
       </c>
+      <c r="C767" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D767" t="s">
         <v>1471</v>
       </c>
@@ -17615,6 +18446,9 @@
       <c r="B768" t="s">
         <v>1461</v>
       </c>
+      <c r="C768" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D768" t="s">
         <v>1472</v>
       </c>
@@ -17629,6 +18463,9 @@
       <c r="B769" t="s">
         <v>1461</v>
       </c>
+      <c r="C769" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D769" t="s">
         <v>1473</v>
       </c>
@@ -17643,6 +18480,9 @@
       <c r="B770" t="s">
         <v>1461</v>
       </c>
+      <c r="C770" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D770" t="s">
         <v>1474</v>
       </c>
@@ -17657,6 +18497,9 @@
       <c r="B771" t="s">
         <v>1461</v>
       </c>
+      <c r="C771" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D771" t="s">
         <v>1475</v>
       </c>
@@ -17671,6 +18514,9 @@
       <c r="B772" t="s">
         <v>1461</v>
       </c>
+      <c r="C772" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D772" t="s">
         <v>1476</v>
       </c>
@@ -17685,6 +18531,9 @@
       <c r="B773" t="s">
         <v>1492</v>
       </c>
+      <c r="C773" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D773" t="s">
         <v>1493</v>
       </c>
@@ -17699,6 +18548,9 @@
       <c r="B774" t="s">
         <v>1492</v>
       </c>
+      <c r="C774" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D774" t="s">
         <v>1494</v>
       </c>
@@ -17713,6 +18565,9 @@
       <c r="B775" t="s">
         <v>1492</v>
       </c>
+      <c r="C775" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D775" t="s">
         <v>1495</v>
       </c>
@@ -17727,6 +18582,9 @@
       <c r="B776" t="s">
         <v>1492</v>
       </c>
+      <c r="C776" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D776" t="s">
         <v>1496</v>
       </c>
@@ -17741,6 +18599,9 @@
       <c r="B777" t="s">
         <v>1492</v>
       </c>
+      <c r="C777" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D777" t="s">
         <v>1497</v>
       </c>
@@ -17755,6 +18616,9 @@
       <c r="B778" t="s">
         <v>1492</v>
       </c>
+      <c r="C778" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D778" t="s">
         <v>1498</v>
       </c>
@@ -17769,6 +18633,9 @@
       <c r="B779" t="s">
         <v>1492</v>
       </c>
+      <c r="C779" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D779" t="s">
         <v>1499</v>
       </c>
@@ -17783,6 +18650,9 @@
       <c r="B780" t="s">
         <v>1492</v>
       </c>
+      <c r="C780" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D780" t="s">
         <v>1500</v>
       </c>
@@ -17797,6 +18667,9 @@
       <c r="B781" t="s">
         <v>1492</v>
       </c>
+      <c r="C781" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D781" t="s">
         <v>1501</v>
       </c>
@@ -17811,6 +18684,9 @@
       <c r="B782" t="s">
         <v>1492</v>
       </c>
+      <c r="C782" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D782" t="s">
         <v>1502</v>
       </c>
@@ -17825,6 +18701,9 @@
       <c r="B783" t="s">
         <v>1492</v>
       </c>
+      <c r="C783" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D783" t="s">
         <v>1503</v>
       </c>
@@ -17839,6 +18718,9 @@
       <c r="B784" t="s">
         <v>1492</v>
       </c>
+      <c r="C784" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D784" t="s">
         <v>1504</v>
       </c>
@@ -17853,6 +18735,9 @@
       <c r="B785" t="s">
         <v>1492</v>
       </c>
+      <c r="C785" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D785" t="s">
         <v>1505</v>
       </c>
@@ -17867,6 +18752,9 @@
       <c r="B786" t="s">
         <v>1492</v>
       </c>
+      <c r="C786" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D786" t="s">
         <v>1506</v>
       </c>
@@ -17881,6 +18769,9 @@
       <c r="B787" t="s">
         <v>1492</v>
       </c>
+      <c r="C787" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D787" t="s">
         <v>1507</v>
       </c>
@@ -17895,6 +18786,9 @@
       <c r="B788" t="s">
         <v>1492</v>
       </c>
+      <c r="C788" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D788" t="s">
         <v>1508</v>
       </c>
@@ -17909,6 +18803,9 @@
       <c r="B789" t="s">
         <v>1525</v>
       </c>
+      <c r="C789" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D789" t="s">
         <v>1526</v>
       </c>
@@ -17923,6 +18820,9 @@
       <c r="B790" t="s">
         <v>1525</v>
       </c>
+      <c r="C790" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D790" t="s">
         <v>1528</v>
       </c>
@@ -17937,6 +18837,9 @@
       <c r="B791" t="s">
         <v>1529</v>
       </c>
+      <c r="C791" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D791" t="s">
         <v>1530</v>
       </c>
@@ -17951,6 +18854,9 @@
       <c r="B792" t="s">
         <v>1529</v>
       </c>
+      <c r="C792" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D792" t="s">
         <v>1532</v>
       </c>
@@ -17965,6 +18871,9 @@
       <c r="B793" t="s">
         <v>1529</v>
       </c>
+      <c r="C793" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D793" t="s">
         <v>1534</v>
       </c>
@@ -17979,6 +18888,9 @@
       <c r="B794" t="s">
         <v>1529</v>
       </c>
+      <c r="C794" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D794" t="s">
         <v>1536</v>
       </c>
@@ -17993,6 +18905,9 @@
       <c r="B795" t="s">
         <v>1529</v>
       </c>
+      <c r="C795" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D795" t="s">
         <v>1538</v>
       </c>
@@ -18007,6 +18922,9 @@
       <c r="B796" t="s">
         <v>1540</v>
       </c>
+      <c r="C796" s="7" t="s">
+        <v>1545</v>
+      </c>
       <c r="D796" t="s">
         <v>1541</v>
       </c>
@@ -18020,6 +18938,9 @@
     <row r="797" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B797" t="s">
         <v>1540</v>
+      </c>
+      <c r="C797" s="7" t="s">
+        <v>1545</v>
       </c>
       <c r="D797" t="s">
         <v>1543</v>

--- a/data/ece-catalog.xlsx
+++ b/data/ece-catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elisa/Documents/uwece-catalog/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390B90D2-31A0-2C44-9FFB-0DD992C2E261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB15CDD5-092A-7848-A846-53BA4756E58D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10820" yWindow="460" windowWidth="14780" windowHeight="14180" xr2:uid="{0B1F95D0-FD8F-8249-8FAE-3C2EA3F05EE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="1546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="1547">
   <si>
     <t>Part #</t>
   </si>
@@ -4341,9 +4341,6 @@
     <t>LED 7 green segment overflow (+1), common cathode</t>
   </si>
   <si>
-    <t>Optoelectronics</t>
-  </si>
-  <si>
     <t>HCPL2601</t>
   </si>
   <si>
@@ -4663,6 +4660,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Resistors, DIP, &amp; SIP</t>
+  </si>
+  <si>
+    <t>Opto-electronics</t>
   </si>
 </sst>
 </file>
@@ -5080,8 +5083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B127431A-815B-8C47-B798-29A98F3159CA}">
   <dimension ref="A1:H797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A769" workbookViewId="0">
-      <selection activeCell="D788" sqref="D788"/>
+    <sheetView tabSelected="1" topLeftCell="A731" workbookViewId="0">
+      <selection activeCell="C750" sqref="C750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5693,7 +5696,7 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>298</v>
+        <v>1545</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>357</v>
@@ -13767,7 +13770,7 @@
         <v>943</v>
       </c>
       <c r="C492" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D492" t="s">
         <v>944</v>
@@ -13784,7 +13787,7 @@
         <v>943</v>
       </c>
       <c r="C493" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D493" t="s">
         <v>945</v>
@@ -13801,7 +13804,7 @@
         <v>943</v>
       </c>
       <c r="C494" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D494" t="s">
         <v>946</v>
@@ -13818,7 +13821,7 @@
         <v>943</v>
       </c>
       <c r="C495" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D495" t="s">
         <v>947</v>
@@ -13835,7 +13838,7 @@
         <v>943</v>
       </c>
       <c r="C496" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D496" t="s">
         <v>948</v>
@@ -13852,7 +13855,7 @@
         <v>943</v>
       </c>
       <c r="C497" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D497" t="s">
         <v>949</v>
@@ -13869,7 +13872,7 @@
         <v>943</v>
       </c>
       <c r="C498" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D498" t="s">
         <v>950</v>
@@ -13886,7 +13889,7 @@
         <v>943</v>
       </c>
       <c r="C499" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D499" t="s">
         <v>951</v>
@@ -13903,7 +13906,7 @@
         <v>943</v>
       </c>
       <c r="C500" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D500" t="s">
         <v>952</v>
@@ -13920,7 +13923,7 @@
         <v>943</v>
       </c>
       <c r="C501" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D501" t="s">
         <v>953</v>
@@ -13937,7 +13940,7 @@
         <v>943</v>
       </c>
       <c r="C502" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D502" t="s">
         <v>954</v>
@@ -13954,7 +13957,7 @@
         <v>943</v>
       </c>
       <c r="C503" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D503" t="s">
         <v>955</v>
@@ -13971,7 +13974,7 @@
         <v>943</v>
       </c>
       <c r="C504" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D504" t="s">
         <v>956</v>
@@ -13988,7 +13991,7 @@
         <v>943</v>
       </c>
       <c r="C505" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D505" t="s">
         <v>957</v>
@@ -14005,7 +14008,7 @@
         <v>943</v>
       </c>
       <c r="C506" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D506" t="s">
         <v>958</v>
@@ -14022,7 +14025,7 @@
         <v>943</v>
       </c>
       <c r="C507" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D507" t="s">
         <v>959</v>
@@ -14039,7 +14042,7 @@
         <v>943</v>
       </c>
       <c r="C508" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D508" t="s">
         <v>960</v>
@@ -14056,7 +14059,7 @@
         <v>943</v>
       </c>
       <c r="C509" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D509" t="s">
         <v>961</v>
@@ -14073,7 +14076,7 @@
         <v>943</v>
       </c>
       <c r="C510" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D510" t="s">
         <v>962</v>
@@ -14090,7 +14093,7 @@
         <v>943</v>
       </c>
       <c r="C511" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D511" t="s">
         <v>963</v>
@@ -14107,7 +14110,7 @@
         <v>943</v>
       </c>
       <c r="C512" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D512" t="s">
         <v>964</v>
@@ -14124,7 +14127,7 @@
         <v>943</v>
       </c>
       <c r="C513" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D513" t="s">
         <v>965</v>
@@ -14141,7 +14144,7 @@
         <v>943</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D514" t="s">
         <v>966</v>
@@ -14158,7 +14161,7 @@
         <v>943</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D515" t="s">
         <v>967</v>
@@ -14175,7 +14178,7 @@
         <v>943</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D516" t="s">
         <v>968</v>
@@ -14192,7 +14195,7 @@
         <v>943</v>
       </c>
       <c r="C517" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D517" t="s">
         <v>969</v>
@@ -14209,7 +14212,7 @@
         <v>943</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D518" t="s">
         <v>970</v>
@@ -14226,7 +14229,7 @@
         <v>943</v>
       </c>
       <c r="C519" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D519" t="s">
         <v>971</v>
@@ -14243,7 +14246,7 @@
         <v>943</v>
       </c>
       <c r="C520" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D520" t="s">
         <v>972</v>
@@ -14260,7 +14263,7 @@
         <v>943</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D521" t="s">
         <v>973</v>
@@ -14277,7 +14280,7 @@
         <v>943</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D522" t="s">
         <v>974</v>
@@ -14294,7 +14297,7 @@
         <v>943</v>
       </c>
       <c r="C523" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D523" t="s">
         <v>975</v>
@@ -14311,7 +14314,7 @@
         <v>943</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D524" t="s">
         <v>976</v>
@@ -14328,7 +14331,7 @@
         <v>943</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D525" t="s">
         <v>977</v>
@@ -14345,7 +14348,7 @@
         <v>943</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D526" t="s">
         <v>978</v>
@@ -14362,7 +14365,7 @@
         <v>943</v>
       </c>
       <c r="C527" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D527" t="s">
         <v>979</v>
@@ -14379,7 +14382,7 @@
         <v>943</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D528" t="s">
         <v>1013</v>
@@ -14396,7 +14399,7 @@
         <v>943</v>
       </c>
       <c r="C529" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D529" t="s">
         <v>1014</v>
@@ -14413,7 +14416,7 @@
         <v>943</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D530" t="s">
         <v>1015</v>
@@ -14430,7 +14433,7 @@
         <v>943</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D531" t="s">
         <v>1016</v>
@@ -14447,7 +14450,7 @@
         <v>943</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D532" t="s">
         <v>1017</v>
@@ -14464,7 +14467,7 @@
         <v>943</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D533" t="s">
         <v>1018</v>
@@ -14481,7 +14484,7 @@
         <v>943</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D534" t="s">
         <v>1019</v>
@@ -14498,7 +14501,7 @@
         <v>943</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D535" t="s">
         <v>1020</v>
@@ -14515,7 +14518,7 @@
         <v>943</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D536" t="s">
         <v>1021</v>
@@ -14532,7 +14535,7 @@
         <v>943</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D537" t="s">
         <v>1022</v>
@@ -14549,7 +14552,7 @@
         <v>943</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D538" t="s">
         <v>1023</v>
@@ -14566,7 +14569,7 @@
         <v>943</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D539" t="s">
         <v>1024</v>
@@ -14583,7 +14586,7 @@
         <v>943</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D540" t="s">
         <v>1025</v>
@@ -14600,7 +14603,7 @@
         <v>943</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D541" t="s">
         <v>1026</v>
@@ -14617,7 +14620,7 @@
         <v>943</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D542" t="s">
         <v>1027</v>
@@ -14634,7 +14637,7 @@
         <v>943</v>
       </c>
       <c r="C543" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D543" t="s">
         <v>1028</v>
@@ -14651,7 +14654,7 @@
         <v>943</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D544" t="s">
         <v>1029</v>
@@ -14668,7 +14671,7 @@
         <v>943</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D545" t="s">
         <v>1030</v>
@@ -14685,7 +14688,7 @@
         <v>943</v>
       </c>
       <c r="C546" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D546" t="s">
         <v>1031</v>
@@ -14702,7 +14705,7 @@
         <v>943</v>
       </c>
       <c r="C547" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D547" t="s">
         <v>1032</v>
@@ -14716,7 +14719,7 @@
         <v>943</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D548" t="s">
         <v>1033</v>
@@ -14733,7 +14736,7 @@
         <v>943</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D549" t="s">
         <v>1034</v>
@@ -14750,7 +14753,7 @@
         <v>943</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D550" t="s">
         <v>1035</v>
@@ -14767,7 +14770,7 @@
         <v>943</v>
       </c>
       <c r="C551" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D551" t="s">
         <v>1036</v>
@@ -14784,7 +14787,7 @@
         <v>943</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D552" t="s">
         <v>1037</v>
@@ -14801,7 +14804,7 @@
         <v>943</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D553" t="s">
         <v>1038</v>
@@ -14818,7 +14821,7 @@
         <v>943</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D554" t="s">
         <v>1039</v>
@@ -14835,7 +14838,7 @@
         <v>943</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D555" t="s">
         <v>1040</v>
@@ -14852,7 +14855,7 @@
         <v>943</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D556" t="s">
         <v>1041</v>
@@ -14869,7 +14872,7 @@
         <v>943</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D557" t="s">
         <v>1042</v>
@@ -14886,7 +14889,7 @@
         <v>943</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D558" t="s">
         <v>1043</v>
@@ -14903,7 +14906,7 @@
         <v>943</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D559" t="s">
         <v>1044</v>
@@ -14920,7 +14923,7 @@
         <v>943</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D560" t="s">
         <v>1045</v>
@@ -14934,7 +14937,7 @@
         <v>943</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D561" t="s">
         <v>1046</v>
@@ -14951,7 +14954,7 @@
         <v>943</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D562" t="s">
         <v>1047</v>
@@ -14968,7 +14971,7 @@
         <v>943</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D563" t="s">
         <v>1048</v>
@@ -14985,7 +14988,7 @@
         <v>943</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D564" t="s">
         <v>1083</v>
@@ -15002,7 +15005,7 @@
         <v>943</v>
       </c>
       <c r="C565" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D565" t="s">
         <v>1084</v>
@@ -15019,7 +15022,7 @@
         <v>943</v>
       </c>
       <c r="C566" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D566" t="s">
         <v>1085</v>
@@ -15033,7 +15036,7 @@
         <v>943</v>
       </c>
       <c r="C567" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D567" t="s">
         <v>1086</v>
@@ -15050,7 +15053,7 @@
         <v>943</v>
       </c>
       <c r="C568" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D568" t="s">
         <v>1087</v>
@@ -15067,7 +15070,7 @@
         <v>943</v>
       </c>
       <c r="C569" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D569" t="s">
         <v>1088</v>
@@ -15084,7 +15087,7 @@
         <v>943</v>
       </c>
       <c r="C570" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D570" t="s">
         <v>1089</v>
@@ -15101,7 +15104,7 @@
         <v>943</v>
       </c>
       <c r="C571" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D571" t="s">
         <v>1090</v>
@@ -15118,7 +15121,7 @@
         <v>943</v>
       </c>
       <c r="C572" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D572" t="s">
         <v>1091</v>
@@ -15135,7 +15138,7 @@
         <v>943</v>
       </c>
       <c r="C573" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D573" t="s">
         <v>1092</v>
@@ -15152,7 +15155,7 @@
         <v>943</v>
       </c>
       <c r="C574" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D574" t="s">
         <v>1093</v>
@@ -15169,7 +15172,7 @@
         <v>943</v>
       </c>
       <c r="C575" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D575" t="s">
         <v>1094</v>
@@ -15186,7 +15189,7 @@
         <v>943</v>
       </c>
       <c r="C576" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D576" t="s">
         <v>1095</v>
@@ -15203,7 +15206,7 @@
         <v>943</v>
       </c>
       <c r="C577" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D577" t="s">
         <v>1096</v>
@@ -15220,7 +15223,7 @@
         <v>943</v>
       </c>
       <c r="C578" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D578" t="s">
         <v>1097</v>
@@ -15237,7 +15240,7 @@
         <v>1112</v>
       </c>
       <c r="C579" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D579" t="s">
         <v>1113</v>
@@ -15254,7 +15257,7 @@
         <v>1112</v>
       </c>
       <c r="C580" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D580" t="s">
         <v>1114</v>
@@ -15271,7 +15274,7 @@
         <v>1112</v>
       </c>
       <c r="C581" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D581" t="s">
         <v>1115</v>
@@ -15288,7 +15291,7 @@
         <v>1112</v>
       </c>
       <c r="C582" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D582" t="s">
         <v>1116</v>
@@ -15305,7 +15308,7 @@
         <v>1112</v>
       </c>
       <c r="C583" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D583" t="s">
         <v>1117</v>
@@ -15322,7 +15325,7 @@
         <v>1112</v>
       </c>
       <c r="C584" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D584" t="s">
         <v>1118</v>
@@ -15339,7 +15342,7 @@
         <v>1112</v>
       </c>
       <c r="C585" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D585" t="s">
         <v>1119</v>
@@ -15356,7 +15359,7 @@
         <v>1112</v>
       </c>
       <c r="C586" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D586" t="s">
         <v>1120</v>
@@ -15373,7 +15376,7 @@
         <v>1112</v>
       </c>
       <c r="C587" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D587" t="s">
         <v>1121</v>
@@ -15390,7 +15393,7 @@
         <v>1112</v>
       </c>
       <c r="C588" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D588" t="s">
         <v>1122</v>
@@ -15407,7 +15410,7 @@
         <v>1112</v>
       </c>
       <c r="C589" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D589" t="s">
         <v>1123</v>
@@ -15424,7 +15427,7 @@
         <v>1112</v>
       </c>
       <c r="C590" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D590" t="s">
         <v>1124</v>
@@ -15441,7 +15444,7 @@
         <v>1112</v>
       </c>
       <c r="C591" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D591" t="s">
         <v>1125</v>
@@ -15458,7 +15461,7 @@
         <v>1112</v>
       </c>
       <c r="C592" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D592" t="s">
         <v>1126</v>
@@ -15475,7 +15478,7 @@
         <v>1112</v>
       </c>
       <c r="C593" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D593" t="s">
         <v>1127</v>
@@ -15492,7 +15495,7 @@
         <v>1112</v>
       </c>
       <c r="C594" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D594" t="s">
         <v>1128</v>
@@ -15509,7 +15512,7 @@
         <v>1112</v>
       </c>
       <c r="C595" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D595" t="s">
         <v>1129</v>
@@ -15526,7 +15529,7 @@
         <v>1112</v>
       </c>
       <c r="C596" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D596" t="s">
         <v>1130</v>
@@ -15543,7 +15546,7 @@
         <v>1112</v>
       </c>
       <c r="C597" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D597" t="s">
         <v>1131</v>
@@ -15560,7 +15563,7 @@
         <v>1112</v>
       </c>
       <c r="C598" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D598" t="s">
         <v>1132</v>
@@ -15577,7 +15580,7 @@
         <v>1112</v>
       </c>
       <c r="C599" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D599" t="s">
         <v>1133</v>
@@ -15594,7 +15597,7 @@
         <v>1112</v>
       </c>
       <c r="C600" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D600" t="s">
         <v>1134</v>
@@ -15611,7 +15614,7 @@
         <v>1112</v>
       </c>
       <c r="C601" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D601" t="s">
         <v>1135</v>
@@ -15628,7 +15631,7 @@
         <v>1112</v>
       </c>
       <c r="C602" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D602" t="s">
         <v>1136</v>
@@ -15645,7 +15648,7 @@
         <v>1112</v>
       </c>
       <c r="C603" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D603" t="s">
         <v>1137</v>
@@ -15662,7 +15665,7 @@
         <v>1112</v>
       </c>
       <c r="C604" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D604" t="s">
         <v>1138</v>
@@ -15679,7 +15682,7 @@
         <v>1112</v>
       </c>
       <c r="C605" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D605" t="s">
         <v>1139</v>
@@ -15696,7 +15699,7 @@
         <v>1112</v>
       </c>
       <c r="C606" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D606" t="s">
         <v>1140</v>
@@ -15713,7 +15716,7 @@
         <v>1112</v>
       </c>
       <c r="C607" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D607" t="s">
         <v>1141</v>
@@ -15730,7 +15733,7 @@
         <v>1112</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D608" t="s">
         <v>1142</v>
@@ -15747,7 +15750,7 @@
         <v>1112</v>
       </c>
       <c r="C609" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D609" t="s">
         <v>1143</v>
@@ -15764,7 +15767,7 @@
         <v>1112</v>
       </c>
       <c r="C610" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D610" t="s">
         <v>1144</v>
@@ -15781,7 +15784,7 @@
         <v>1112</v>
       </c>
       <c r="C611" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D611" t="s">
         <v>1145</v>
@@ -15798,7 +15801,7 @@
         <v>1112</v>
       </c>
       <c r="C612" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D612" t="s">
         <v>1146</v>
@@ -15815,7 +15818,7 @@
         <v>1112</v>
       </c>
       <c r="C613" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D613" t="s">
         <v>1147</v>
@@ -15829,7 +15832,7 @@
         <v>1112</v>
       </c>
       <c r="C614" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D614" t="s">
         <v>1148</v>
@@ -15846,7 +15849,7 @@
         <v>1112</v>
       </c>
       <c r="C615" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D615" t="s">
         <v>1179</v>
@@ -15863,7 +15866,7 @@
         <v>1112</v>
       </c>
       <c r="C616" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D616" t="s">
         <v>1180</v>
@@ -15880,7 +15883,7 @@
         <v>1112</v>
       </c>
       <c r="C617" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D617" t="s">
         <v>1181</v>
@@ -15897,7 +15900,7 @@
         <v>1112</v>
       </c>
       <c r="C618" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D618" t="s">
         <v>1182</v>
@@ -15914,7 +15917,7 @@
         <v>1112</v>
       </c>
       <c r="C619" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D619" t="s">
         <v>1183</v>
@@ -15931,7 +15934,7 @@
         <v>1112</v>
       </c>
       <c r="C620" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D620" t="s">
         <v>1184</v>
@@ -15948,7 +15951,7 @@
         <v>1112</v>
       </c>
       <c r="C621" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D621" t="s">
         <v>1185</v>
@@ -15965,7 +15968,7 @@
         <v>1112</v>
       </c>
       <c r="C622" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D622" t="s">
         <v>1186</v>
@@ -15982,7 +15985,7 @@
         <v>1112</v>
       </c>
       <c r="C623" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D623" t="s">
         <v>1187</v>
@@ -15999,7 +16002,7 @@
         <v>1112</v>
       </c>
       <c r="C624" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D624" t="s">
         <v>1188</v>
@@ -16016,7 +16019,7 @@
         <v>1112</v>
       </c>
       <c r="C625" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D625" t="s">
         <v>1189</v>
@@ -16033,7 +16036,7 @@
         <v>1112</v>
       </c>
       <c r="C626" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D626" t="s">
         <v>1190</v>
@@ -16050,7 +16053,7 @@
         <v>1112</v>
       </c>
       <c r="C627" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D627" t="s">
         <v>1191</v>
@@ -16067,7 +16070,7 @@
         <v>1112</v>
       </c>
       <c r="C628" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D628" t="s">
         <v>1192</v>
@@ -16084,7 +16087,7 @@
         <v>1112</v>
       </c>
       <c r="C629" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D629" t="s">
         <v>1193</v>
@@ -16101,7 +16104,7 @@
         <v>1112</v>
       </c>
       <c r="C630" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D630" t="s">
         <v>1194</v>
@@ -16118,7 +16121,7 @@
         <v>1112</v>
       </c>
       <c r="C631" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D631" t="s">
         <v>1195</v>
@@ -16135,7 +16138,7 @@
         <v>1112</v>
       </c>
       <c r="C632" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D632" t="s">
         <v>1196</v>
@@ -16152,7 +16155,7 @@
         <v>1112</v>
       </c>
       <c r="C633" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D633" t="s">
         <v>1197</v>
@@ -16169,7 +16172,7 @@
         <v>1112</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D634" t="s">
         <v>1198</v>
@@ -16186,7 +16189,7 @@
         <v>1112</v>
       </c>
       <c r="C635" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D635" t="s">
         <v>1199</v>
@@ -16203,7 +16206,7 @@
         <v>1112</v>
       </c>
       <c r="C636" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D636" t="s">
         <v>1200</v>
@@ -16220,7 +16223,7 @@
         <v>1112</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D637" t="s">
         <v>1201</v>
@@ -16237,7 +16240,7 @@
         <v>1112</v>
       </c>
       <c r="C638" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D638" t="s">
         <v>1202</v>
@@ -16254,7 +16257,7 @@
         <v>1112</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D639" t="s">
         <v>1203</v>
@@ -16271,7 +16274,7 @@
         <v>1112</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D640" t="s">
         <v>1204</v>
@@ -16288,7 +16291,7 @@
         <v>1112</v>
       </c>
       <c r="C641" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D641" t="s">
         <v>1205</v>
@@ -16305,7 +16308,7 @@
         <v>1112</v>
       </c>
       <c r="C642" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D642" t="s">
         <v>1206</v>
@@ -16322,7 +16325,7 @@
         <v>1112</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D643" t="s">
         <v>1207</v>
@@ -16339,7 +16342,7 @@
         <v>1112</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D644" t="s">
         <v>1208</v>
@@ -16356,7 +16359,7 @@
         <v>1112</v>
       </c>
       <c r="C645" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D645" t="s">
         <v>1209</v>
@@ -16373,7 +16376,7 @@
         <v>1112</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D646" t="s">
         <v>1210</v>
@@ -16390,7 +16393,7 @@
         <v>1112</v>
       </c>
       <c r="C647" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D647" t="s">
         <v>1211</v>
@@ -16407,7 +16410,7 @@
         <v>1112</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D648" t="s">
         <v>1241</v>
@@ -16424,7 +16427,7 @@
         <v>1112</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D649" t="s">
         <v>1242</v>
@@ -16441,7 +16444,7 @@
         <v>1112</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D650" t="s">
         <v>1243</v>
@@ -16458,7 +16461,7 @@
         <v>1112</v>
       </c>
       <c r="C651" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D651" t="s">
         <v>1244</v>
@@ -16475,7 +16478,7 @@
         <v>1112</v>
       </c>
       <c r="C652" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D652" t="s">
         <v>1245</v>
@@ -16492,7 +16495,7 @@
         <v>1112</v>
       </c>
       <c r="C653" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D653" t="s">
         <v>1246</v>
@@ -16509,7 +16512,7 @@
         <v>1112</v>
       </c>
       <c r="C654" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D654" t="s">
         <v>1247</v>
@@ -16526,7 +16529,7 @@
         <v>1112</v>
       </c>
       <c r="C655" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D655" t="s">
         <v>1248</v>
@@ -16543,7 +16546,7 @@
         <v>1112</v>
       </c>
       <c r="C656" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D656" t="s">
         <v>1249</v>
@@ -16560,7 +16563,7 @@
         <v>1112</v>
       </c>
       <c r="C657" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D657" t="s">
         <v>1250</v>
@@ -16577,7 +16580,7 @@
         <v>1112</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D658" t="s">
         <v>1251</v>
@@ -16594,7 +16597,7 @@
         <v>1112</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D659" t="s">
         <v>1252</v>
@@ -16611,7 +16614,7 @@
         <v>1112</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D660" t="s">
         <v>1253</v>
@@ -16628,7 +16631,7 @@
         <v>1112</v>
       </c>
       <c r="C661" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D661" t="s">
         <v>1254</v>
@@ -16645,7 +16648,7 @@
         <v>1269</v>
       </c>
       <c r="C662" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D662" t="s">
         <v>1270</v>
@@ -16662,7 +16665,7 @@
         <v>1269</v>
       </c>
       <c r="C663" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D663">
         <v>7805</v>
@@ -16679,7 +16682,7 @@
         <v>1269</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D664" t="s">
         <v>1271</v>
@@ -16696,7 +16699,7 @@
         <v>1269</v>
       </c>
       <c r="C665" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D665" t="s">
         <v>1272</v>
@@ -16713,7 +16716,7 @@
         <v>1269</v>
       </c>
       <c r="C666" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D666" t="s">
         <v>1273</v>
@@ -16730,7 +16733,7 @@
         <v>1269</v>
       </c>
       <c r="C667" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D667" t="s">
         <v>1274</v>
@@ -16747,7 +16750,7 @@
         <v>1269</v>
       </c>
       <c r="C668" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D668" t="s">
         <v>1275</v>
@@ -16764,7 +16767,7 @@
         <v>1269</v>
       </c>
       <c r="C669" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D669" t="s">
         <v>1276</v>
@@ -16781,7 +16784,7 @@
         <v>1269</v>
       </c>
       <c r="C670" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D670" t="s">
         <v>1277</v>
@@ -16798,7 +16801,7 @@
         <v>1269</v>
       </c>
       <c r="C671" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D671" t="s">
         <v>1278</v>
@@ -16815,7 +16818,7 @@
         <v>1269</v>
       </c>
       <c r="C672" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D672" t="s">
         <v>1279</v>
@@ -16832,7 +16835,7 @@
         <v>1269</v>
       </c>
       <c r="C673" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D673" t="s">
         <v>1280</v>
@@ -16849,7 +16852,7 @@
         <v>1269</v>
       </c>
       <c r="C674" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D674" t="s">
         <v>1281</v>
@@ -16866,7 +16869,7 @@
         <v>1269</v>
       </c>
       <c r="C675" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D675" t="s">
         <v>1282</v>
@@ -16883,7 +16886,7 @@
         <v>1269</v>
       </c>
       <c r="C676" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D676" t="s">
         <v>1283</v>
@@ -16900,7 +16903,7 @@
         <v>1269</v>
       </c>
       <c r="C677" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D677" t="s">
         <v>1284</v>
@@ -16917,7 +16920,7 @@
         <v>1269</v>
       </c>
       <c r="C678" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D678" t="s">
         <v>1285</v>
@@ -16934,7 +16937,7 @@
         <v>1269</v>
       </c>
       <c r="C679" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D679" t="s">
         <v>1286</v>
@@ -16951,7 +16954,7 @@
         <v>1269</v>
       </c>
       <c r="C680" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D680" t="s">
         <v>1287</v>
@@ -16968,7 +16971,7 @@
         <v>1269</v>
       </c>
       <c r="C681" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D681" t="s">
         <v>1288</v>
@@ -16985,7 +16988,7 @@
         <v>1309</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D682" t="s">
         <v>1310</v>
@@ -17002,7 +17005,7 @@
         <v>1309</v>
       </c>
       <c r="C683" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D683" t="s">
         <v>1311</v>
@@ -17019,7 +17022,7 @@
         <v>1309</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D684" t="s">
         <v>1312</v>
@@ -17036,7 +17039,7 @@
         <v>1309</v>
       </c>
       <c r="C685" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D685" t="s">
         <v>1313</v>
@@ -17053,7 +17056,7 @@
         <v>1309</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D686" t="s">
         <v>1314</v>
@@ -17070,7 +17073,7 @@
         <v>1369</v>
       </c>
       <c r="C687" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D687" t="s">
         <v>1320</v>
@@ -17087,7 +17090,7 @@
         <v>1369</v>
       </c>
       <c r="C688" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D688" t="s">
         <v>1321</v>
@@ -17104,7 +17107,7 @@
         <v>1369</v>
       </c>
       <c r="C689" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D689" t="s">
         <v>1322</v>
@@ -17121,7 +17124,7 @@
         <v>1369</v>
       </c>
       <c r="C690" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D690" t="s">
         <v>1323</v>
@@ -17138,7 +17141,7 @@
         <v>1369</v>
       </c>
       <c r="C691" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D691" t="s">
         <v>1324</v>
@@ -17155,7 +17158,7 @@
         <v>1369</v>
       </c>
       <c r="C692" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D692" t="s">
         <v>1325</v>
@@ -17172,7 +17175,7 @@
         <v>1369</v>
       </c>
       <c r="C693" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D693" t="s">
         <v>1326</v>
@@ -17189,7 +17192,7 @@
         <v>1369</v>
       </c>
       <c r="C694" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D694" t="s">
         <v>1327</v>
@@ -17206,7 +17209,7 @@
         <v>1369</v>
       </c>
       <c r="C695" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D695" t="s">
         <v>1328</v>
@@ -17223,7 +17226,7 @@
         <v>1369</v>
       </c>
       <c r="C696" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D696" t="s">
         <v>1329</v>
@@ -17240,7 +17243,7 @@
         <v>1369</v>
       </c>
       <c r="C697" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D697" t="s">
         <v>1330</v>
@@ -17257,7 +17260,7 @@
         <v>1369</v>
       </c>
       <c r="C698" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D698" t="s">
         <v>1331</v>
@@ -17274,7 +17277,7 @@
         <v>1369</v>
       </c>
       <c r="C699" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D699" t="s">
         <v>1332</v>
@@ -17291,7 +17294,7 @@
         <v>1369</v>
       </c>
       <c r="C700" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D700" t="s">
         <v>1333</v>
@@ -17308,7 +17311,7 @@
         <v>1369</v>
       </c>
       <c r="C701" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D701" t="s">
         <v>1334</v>
@@ -17325,7 +17328,7 @@
         <v>1369</v>
       </c>
       <c r="C702" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D702" t="s">
         <v>1335</v>
@@ -17342,7 +17345,7 @@
         <v>1369</v>
       </c>
       <c r="C703" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D703" t="s">
         <v>1336</v>
@@ -17359,7 +17362,7 @@
         <v>1369</v>
       </c>
       <c r="C704" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D704" t="s">
         <v>1337</v>
@@ -17376,7 +17379,7 @@
         <v>1369</v>
       </c>
       <c r="C705" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D705" t="s">
         <v>1338</v>
@@ -17393,7 +17396,7 @@
         <v>1369</v>
       </c>
       <c r="C706" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D706" t="s">
         <v>1339</v>
@@ -17410,7 +17413,7 @@
         <v>1369</v>
       </c>
       <c r="C707" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D707" t="s">
         <v>1340</v>
@@ -17427,7 +17430,7 @@
         <v>1369</v>
       </c>
       <c r="C708" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D708" t="s">
         <v>1341</v>
@@ -17444,7 +17447,7 @@
         <v>1369</v>
       </c>
       <c r="C709" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D709" t="s">
         <v>1342</v>
@@ -17461,7 +17464,7 @@
         <v>1369</v>
       </c>
       <c r="C710" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D710" t="s">
         <v>1343</v>
@@ -17478,7 +17481,7 @@
         <v>1369</v>
       </c>
       <c r="C711" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D711" t="s">
         <v>1344</v>
@@ -17495,7 +17498,7 @@
         <v>1370</v>
       </c>
       <c r="C712" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D712" t="s">
         <v>1371</v>
@@ -17512,7 +17515,7 @@
         <v>1370</v>
       </c>
       <c r="C713" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D713" t="s">
         <v>1372</v>
@@ -17529,7 +17532,7 @@
         <v>1370</v>
       </c>
       <c r="C714" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D714" t="s">
         <v>1373</v>
@@ -17546,7 +17549,7 @@
         <v>1370</v>
       </c>
       <c r="C715" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D715" t="s">
         <v>1374</v>
@@ -17563,7 +17566,7 @@
         <v>1370</v>
       </c>
       <c r="C716" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D716" t="s">
         <v>1375</v>
@@ -17580,7 +17583,7 @@
         <v>1370</v>
       </c>
       <c r="C717" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D717" t="s">
         <v>1376</v>
@@ -17597,7 +17600,7 @@
         <v>1370</v>
       </c>
       <c r="C718" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D718" t="s">
         <v>1377</v>
@@ -17614,7 +17617,7 @@
         <v>1370</v>
       </c>
       <c r="C719" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D719" t="s">
         <v>1378</v>
@@ -17631,7 +17634,7 @@
         <v>1370</v>
       </c>
       <c r="C720" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D720" t="s">
         <v>1379</v>
@@ -17648,7 +17651,7 @@
         <v>1370</v>
       </c>
       <c r="C721" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D721" t="s">
         <v>1380</v>
@@ -17665,7 +17668,7 @@
         <v>1370</v>
       </c>
       <c r="C722" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D722" t="s">
         <v>1381</v>
@@ -17682,7 +17685,7 @@
         <v>1370</v>
       </c>
       <c r="C723" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D723" t="s">
         <v>1382</v>
@@ -17699,7 +17702,7 @@
         <v>1370</v>
       </c>
       <c r="C724" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D724" t="s">
         <v>1383</v>
@@ -17716,7 +17719,7 @@
         <v>1370</v>
       </c>
       <c r="C725" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D725" t="s">
         <v>1384</v>
@@ -17733,7 +17736,7 @@
         <v>1370</v>
       </c>
       <c r="C726" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D726" t="s">
         <v>1385</v>
@@ -17750,7 +17753,7 @@
         <v>1399</v>
       </c>
       <c r="C727" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D727" t="s">
         <v>1400</v>
@@ -17767,7 +17770,7 @@
         <v>1399</v>
       </c>
       <c r="C728" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D728" t="s">
         <v>1401</v>
@@ -17784,7 +17787,7 @@
         <v>1399</v>
       </c>
       <c r="C729" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D729" t="s">
         <v>1402</v>
@@ -17801,7 +17804,7 @@
         <v>1399</v>
       </c>
       <c r="C730" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D730" t="s">
         <v>1403</v>
@@ -17818,7 +17821,7 @@
         <v>1399</v>
       </c>
       <c r="C731" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D731" t="s">
         <v>1404</v>
@@ -17835,7 +17838,7 @@
         <v>1399</v>
       </c>
       <c r="C732" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D732" t="s">
         <v>1405</v>
@@ -17852,7 +17855,7 @@
         <v>1399</v>
       </c>
       <c r="C733" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D733" t="s">
         <v>1406</v>
@@ -17869,7 +17872,7 @@
         <v>1399</v>
       </c>
       <c r="C734" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D734" t="s">
         <v>1407</v>
@@ -17886,7 +17889,7 @@
         <v>1399</v>
       </c>
       <c r="C735" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D735" t="s">
         <v>1408</v>
@@ -17903,7 +17906,7 @@
         <v>1399</v>
       </c>
       <c r="C736" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D736" t="s">
         <v>1409</v>
@@ -17920,7 +17923,7 @@
         <v>1399</v>
       </c>
       <c r="C737" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D737" t="s">
         <v>1410</v>
@@ -17937,7 +17940,7 @@
         <v>1399</v>
       </c>
       <c r="C738" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D738" t="s">
         <v>1411</v>
@@ -17954,7 +17957,7 @@
         <v>1399</v>
       </c>
       <c r="C739" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D739" t="s">
         <v>1412</v>
@@ -17971,7 +17974,7 @@
         <v>1399</v>
       </c>
       <c r="C740" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D740" t="s">
         <v>1413</v>
@@ -17988,7 +17991,7 @@
         <v>1399</v>
       </c>
       <c r="C741" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D741" t="s">
         <v>1414</v>
@@ -18005,7 +18008,7 @@
         <v>1399</v>
       </c>
       <c r="C742" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D742" t="s">
         <v>1415</v>
@@ -18022,7 +18025,7 @@
         <v>1399</v>
       </c>
       <c r="C743" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D743" t="s">
         <v>1416</v>
@@ -18039,7 +18042,7 @@
         <v>1399</v>
       </c>
       <c r="C744" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D744" t="s">
         <v>1417</v>
@@ -18056,7 +18059,7 @@
         <v>1399</v>
       </c>
       <c r="C745" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D745" t="s">
         <v>1418</v>
@@ -18070,16 +18073,16 @@
     </row>
     <row r="746" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B746" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C746" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D746" t="s">
         <v>1438</v>
       </c>
-      <c r="C746" s="7" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D746" t="s">
-        <v>1439</v>
-      </c>
       <c r="E746" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F746" s="2">
         <v>1.6</v>
@@ -18087,16 +18090,16 @@
     </row>
     <row r="747" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B747" t="s">
-        <v>1438</v>
+        <v>1546</v>
       </c>
       <c r="C747" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D747" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E747" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F747" s="2">
         <v>1.7</v>
@@ -18104,16 +18107,16 @@
     </row>
     <row r="748" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B748" t="s">
-        <v>1438</v>
+        <v>1546</v>
       </c>
       <c r="C748" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D748" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E748" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="F748" s="2">
         <v>2.2000000000000002</v>
@@ -18121,16 +18124,16 @@
     </row>
     <row r="749" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B749" t="s">
-        <v>1438</v>
+        <v>1546</v>
       </c>
       <c r="C749" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D749" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E749" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="F749" s="2">
         <v>1</v>
@@ -18138,16 +18141,16 @@
     </row>
     <row r="750" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B750" t="s">
-        <v>1438</v>
+        <v>1546</v>
       </c>
       <c r="C750" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D750" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E750" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="F750" s="2">
         <v>2.5</v>
@@ -18155,16 +18158,16 @@
     </row>
     <row r="751" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B751" t="s">
-        <v>1438</v>
+        <v>1546</v>
       </c>
       <c r="C751" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D751" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E751" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F751" s="2">
         <v>1.2</v>
@@ -18172,16 +18175,16 @@
     </row>
     <row r="752" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B752" t="s">
-        <v>1438</v>
+        <v>1546</v>
       </c>
       <c r="C752" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D752" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E752" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="F752" s="2">
         <v>0.6</v>
@@ -18189,16 +18192,16 @@
     </row>
     <row r="753" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B753" t="s">
-        <v>1438</v>
+        <v>1546</v>
       </c>
       <c r="C753" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D753" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E753" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="F753" s="2">
         <v>0.6</v>
@@ -18206,16 +18209,16 @@
     </row>
     <row r="754" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B754" t="s">
-        <v>1438</v>
+        <v>1546</v>
       </c>
       <c r="C754" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D754" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E754" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="F754" s="2">
         <v>12</v>
@@ -18223,16 +18226,16 @@
     </row>
     <row r="755" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B755" t="s">
-        <v>1438</v>
+        <v>1546</v>
       </c>
       <c r="C755" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D755" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E755" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F755" s="2">
         <v>1</v>
@@ -18240,16 +18243,16 @@
     </row>
     <row r="756" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B756" t="s">
-        <v>1438</v>
+        <v>1546</v>
       </c>
       <c r="C756" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D756" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E756" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F756" s="2">
         <v>1</v>
@@ -18257,16 +18260,16 @@
     </row>
     <row r="757" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B757" t="s">
-        <v>1438</v>
+        <v>1546</v>
       </c>
       <c r="C757" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D757" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E757" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F757" s="2">
         <v>1</v>
@@ -18274,16 +18277,16 @@
     </row>
     <row r="758" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B758" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C758" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D758" t="s">
         <v>1461</v>
       </c>
-      <c r="C758" s="7" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D758" t="s">
-        <v>1462</v>
-      </c>
       <c r="E758" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F758" s="2">
         <v>1</v>
@@ -18291,16 +18294,16 @@
     </row>
     <row r="759" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B759" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C759" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D759" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E759" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="F759" s="2">
         <v>1</v>
@@ -18308,16 +18311,16 @@
     </row>
     <row r="760" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B760" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C760" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D760" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E760" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="F760" s="2">
         <v>1</v>
@@ -18325,16 +18328,16 @@
     </row>
     <row r="761" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B761" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C761" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D761" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E761" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F761" s="2">
         <v>1</v>
@@ -18342,16 +18345,16 @@
     </row>
     <row r="762" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B762" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C762" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D762" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E762" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F762" s="2">
         <v>1.2</v>
@@ -18359,16 +18362,16 @@
     </row>
     <row r="763" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B763" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C763" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D763" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E763" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F763" s="2">
         <v>1.6</v>
@@ -18376,16 +18379,16 @@
     </row>
     <row r="764" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B764" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C764" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D764" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E764" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="F764" s="2">
         <v>1.2</v>
@@ -18393,16 +18396,16 @@
     </row>
     <row r="765" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B765" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C765" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D765" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E765" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="F765" s="2">
         <v>0.3</v>
@@ -18410,16 +18413,16 @@
     </row>
     <row r="766" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B766" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C766" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D766" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E766" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="F766" s="2">
         <v>0.6</v>
@@ -18427,16 +18430,16 @@
     </row>
     <row r="767" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B767" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C767" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D767" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E767" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="F767" s="2">
         <v>1.1000000000000001</v>
@@ -18444,16 +18447,16 @@
     </row>
     <row r="768" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B768" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C768" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D768" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E768" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="F768" s="2">
         <v>0.4</v>
@@ -18461,16 +18464,16 @@
     </row>
     <row r="769" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B769" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C769" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D769" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E769" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="F769" s="2">
         <v>0.5</v>
@@ -18478,16 +18481,16 @@
     </row>
     <row r="770" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B770" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C770" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D770" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E770" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="F770" s="2">
         <v>1.3</v>
@@ -18495,16 +18498,16 @@
     </row>
     <row r="771" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B771" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C771" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D771" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E771" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="F771" s="2">
         <v>1.5</v>
@@ -18512,16 +18515,16 @@
     </row>
     <row r="772" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B772" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C772" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D772" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E772" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F772" s="2">
         <v>2</v>
@@ -18529,16 +18532,16 @@
     </row>
     <row r="773" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B773" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C773" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D773" t="s">
         <v>1492</v>
       </c>
-      <c r="C773" s="7" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D773" t="s">
-        <v>1493</v>
-      </c>
       <c r="E773" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F773" s="2">
         <v>1</v>
@@ -18546,16 +18549,16 @@
     </row>
     <row r="774" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B774" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C774" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D774" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E774" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="F774" s="2">
         <v>1</v>
@@ -18563,16 +18566,16 @@
     </row>
     <row r="775" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B775" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C775" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D775" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E775" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="F775" s="2">
         <v>2.5</v>
@@ -18580,16 +18583,16 @@
     </row>
     <row r="776" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B776" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C776" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D776" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E776" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F776" s="2">
         <v>0.4</v>
@@ -18597,16 +18600,16 @@
     </row>
     <row r="777" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B777" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C777" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D777" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E777" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F777" s="2">
         <v>1</v>
@@ -18614,16 +18617,16 @@
     </row>
     <row r="778" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B778" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C778" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D778" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E778" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F778" s="2">
         <v>7.5</v>
@@ -18631,16 +18634,16 @@
     </row>
     <row r="779" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B779" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C779" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D779" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E779" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F779" s="2">
         <v>10</v>
@@ -18648,16 +18651,16 @@
     </row>
     <row r="780" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B780" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C780" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D780" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E780" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F780" s="2">
         <v>25</v>
@@ -18665,16 +18668,16 @@
     </row>
     <row r="781" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B781" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C781" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D781" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E781" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F781" s="2">
         <v>4</v>
@@ -18682,16 +18685,16 @@
     </row>
     <row r="782" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B782" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C782" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D782" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E782" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F782" s="2">
         <v>6.5</v>
@@ -18699,16 +18702,16 @@
     </row>
     <row r="783" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B783" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C783" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D783" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E783" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="F783" s="2">
         <v>5.3</v>
@@ -18716,16 +18719,16 @@
     </row>
     <row r="784" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B784" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C784" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D784" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E784" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="F784" s="2">
         <v>1</v>
@@ -18733,16 +18736,16 @@
     </row>
     <row r="785" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B785" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C785" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D785" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E785" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="F785" s="2">
         <v>10</v>
@@ -18750,16 +18753,16 @@
     </row>
     <row r="786" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B786" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C786" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D786" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E786" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="F786" s="2">
         <v>6</v>
@@ -18767,16 +18770,16 @@
     </row>
     <row r="787" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B787" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C787" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D787" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E787" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="F787" s="2">
         <v>6.5</v>
@@ -18784,16 +18787,16 @@
     </row>
     <row r="788" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B788" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C788" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D788" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="E788" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="F788" s="2">
         <v>1.5</v>
@@ -18801,16 +18804,16 @@
     </row>
     <row r="789" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B789" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C789" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D789" t="s">
         <v>1525</v>
       </c>
-      <c r="C789" s="7" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D789" t="s">
+      <c r="E789" t="s">
         <v>1526</v>
-      </c>
-      <c r="E789" t="s">
-        <v>1527</v>
       </c>
       <c r="F789" s="2">
         <v>55</v>
@@ -18818,16 +18821,16 @@
     </row>
     <row r="790" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B790" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C790" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D790" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E790" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="F790" s="2">
         <v>15</v>
@@ -18835,16 +18838,16 @@
     </row>
     <row r="791" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B791" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C791" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D791" t="s">
         <v>1529</v>
       </c>
-      <c r="C791" s="7" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D791" t="s">
+      <c r="E791" t="s">
         <v>1530</v>
-      </c>
-      <c r="E791" t="s">
-        <v>1531</v>
       </c>
       <c r="F791" s="2">
         <v>15</v>
@@ -18852,16 +18855,16 @@
     </row>
     <row r="792" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B792" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C792" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D792" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E792" t="s">
         <v>1532</v>
-      </c>
-      <c r="E792" t="s">
-        <v>1533</v>
       </c>
       <c r="F792" s="2">
         <v>5</v>
@@ -18869,16 +18872,16 @@
     </row>
     <row r="793" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B793" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C793" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D793" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E793" t="s">
         <v>1534</v>
-      </c>
-      <c r="E793" t="s">
-        <v>1535</v>
       </c>
       <c r="F793" s="2">
         <v>5</v>
@@ -18886,16 +18889,16 @@
     </row>
     <row r="794" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B794" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C794" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D794" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E794" t="s">
         <v>1536</v>
-      </c>
-      <c r="E794" t="s">
-        <v>1537</v>
       </c>
       <c r="F794" s="2">
         <v>5</v>
@@ -18903,16 +18906,16 @@
     </row>
     <row r="795" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B795" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C795" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D795" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E795" t="s">
         <v>1538</v>
-      </c>
-      <c r="E795" t="s">
-        <v>1539</v>
       </c>
       <c r="F795" s="2">
         <v>5</v>
@@ -18920,16 +18923,16 @@
     </row>
     <row r="796" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B796" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C796" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D796" t="s">
         <v>1540</v>
       </c>
-      <c r="C796" s="7" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D796" t="s">
+      <c r="E796" t="s">
         <v>1541</v>
-      </c>
-      <c r="E796" t="s">
-        <v>1542</v>
       </c>
       <c r="F796" s="2">
         <v>0.3</v>
@@ -18937,16 +18940,16 @@
     </row>
     <row r="797" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B797" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C797" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D797" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E797" t="s">
         <v>1543</v>
-      </c>
-      <c r="E797" t="s">
-        <v>1544</v>
       </c>
       <c r="F797" s="2">
         <v>0.7</v>
